--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1644447161182399</v>
+        <v>0.1644447161182256</v>
       </c>
       <c r="D2">
-        <v>0.02494178603110342</v>
+        <v>0.02494178603098973</v>
       </c>
       <c r="E2">
-        <v>0.1225670745227738</v>
+        <v>0.1225670745227561</v>
       </c>
       <c r="F2">
-        <v>2.367131072379209</v>
+        <v>2.367131072379195</v>
       </c>
       <c r="G2">
-        <v>1.890899800070443</v>
+        <v>1.890899800070429</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.813533725174381</v>
+        <v>8.813533725174295</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.769719084805004</v>
+        <v>4.76971908480499</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1394424775202339</v>
+        <v>0.1394424775206318</v>
       </c>
       <c r="D3">
-        <v>0.01731109177072909</v>
+        <v>0.01731109177081791</v>
       </c>
       <c r="E3">
-        <v>0.1081675296891902</v>
+        <v>0.1081675296891866</v>
       </c>
       <c r="F3">
-        <v>1.972343986144779</v>
+        <v>1.972343986144836</v>
       </c>
       <c r="G3">
-        <v>1.569164791306591</v>
+        <v>1.569164791306619</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.564162840643405</v>
+        <v>7.56416284064349</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.082335370879008</v>
+        <v>4.082335370878994</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1247263613154246</v>
+        <v>0.1247263613151972</v>
       </c>
       <c r="D4">
-        <v>0.0137029484586364</v>
+        <v>0.01370294845854048</v>
       </c>
       <c r="E4">
-        <v>0.09950819206428463</v>
+        <v>0.09950819206430594</v>
       </c>
       <c r="F4">
         <v>1.751380892299466</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.672638360745808</v>
+        <v>3.672638360745751</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1188589856048594</v>
+        <v>0.1188589856044615</v>
       </c>
       <c r="D5">
-        <v>0.01245646946351897</v>
+        <v>0.01245646946371082</v>
       </c>
       <c r="E5">
-        <v>0.09601788988872073</v>
+        <v>0.09601788988870297</v>
       </c>
       <c r="F5">
-        <v>1.665810409811996</v>
+        <v>1.665810409811982</v>
       </c>
       <c r="G5">
-        <v>1.321373213482175</v>
+        <v>1.321373213482147</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.515256733259804</v>
+        <v>6.515256733259719</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.508163518306645</v>
+        <v>3.508163518306603</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1178917558486603</v>
+        <v>0.1178917558488592</v>
       </c>
       <c r="D6">
-        <v>0.01226181136595272</v>
+        <v>0.01226181136614812</v>
       </c>
       <c r="E6">
         <v>0.09544045959745517</v>
       </c>
       <c r="F6">
-        <v>1.651848042801944</v>
+        <v>1.651848042801959</v>
       </c>
       <c r="G6">
         <v>1.31013681715622</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.465485157355914</v>
+        <v>6.465485157355857</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.48098613033801</v>
+        <v>3.480986130338039</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1246467432306702</v>
+        <v>0.1246467432306559</v>
       </c>
       <c r="D7">
-        <v>0.01368528700890792</v>
+        <v>0.01368528700889371</v>
       </c>
       <c r="E7">
-        <v>0.09946097371873464</v>
+        <v>0.09946097371873108</v>
       </c>
       <c r="F7">
         <v>1.750209834248722</v>
       </c>
       <c r="G7">
-        <v>1.389394125346257</v>
+        <v>1.389394125346271</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.670410902232874</v>
+        <v>3.670410902232888</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1556720228349775</v>
+        <v>0.1556720228349633</v>
       </c>
       <c r="D8">
-        <v>0.02205570573666549</v>
+        <v>0.02205570573675431</v>
       </c>
       <c r="E8">
-        <v>0.1175594866374716</v>
+        <v>0.1175594866374539</v>
       </c>
       <c r="F8">
-        <v>2.225948955040593</v>
+        <v>2.225948955040622</v>
       </c>
       <c r="G8">
         <v>1.775547159755106</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2233094015338963</v>
+        <v>0.2233094015339105</v>
       </c>
       <c r="D9">
-        <v>0.04981090043846237</v>
+        <v>0.04981090043835579</v>
       </c>
       <c r="E9">
-        <v>0.1549133054539489</v>
+        <v>0.1549133054539809</v>
       </c>
       <c r="F9">
-        <v>3.382608457133387</v>
+        <v>3.382608457133358</v>
       </c>
       <c r="G9">
-        <v>2.728219917464173</v>
+        <v>2.728219917464131</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2805487516502581</v>
+        <v>0.2805487516505281</v>
       </c>
       <c r="D10">
-        <v>0.08269809641321757</v>
+        <v>0.08269809641322468</v>
       </c>
       <c r="E10">
-        <v>0.1842705413246861</v>
+        <v>0.1842705413246932</v>
       </c>
       <c r="F10">
-        <v>4.473769903137224</v>
+        <v>4.473769903137168</v>
       </c>
       <c r="G10">
-        <v>3.639197011478117</v>
+        <v>3.639197011478018</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.31046297359757</v>
+        <v>14.31046297359751</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.838496077609079</v>
+        <v>7.838496077609051</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3094473673230596</v>
+        <v>0.309447367323699</v>
       </c>
       <c r="D11">
-        <v>0.1024537884466525</v>
+        <v>0.1024537884467307</v>
       </c>
       <c r="E11">
-        <v>0.1983008060357889</v>
+        <v>0.198300806035796</v>
       </c>
       <c r="F11">
-        <v>5.060739501652847</v>
+        <v>5.060739501652932</v>
       </c>
       <c r="G11">
-        <v>4.13293847919914</v>
+        <v>4.132938479199197</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15.60830386083538</v>
+        <v>15.60830386083526</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.57402894849173</v>
+        <v>8.574028948491758</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3209655386153685</v>
+        <v>0.3209655386150985</v>
       </c>
       <c r="D12">
         <v>0.1109123592250896</v>
       </c>
       <c r="E12">
-        <v>0.2037431255585744</v>
+        <v>0.2037431255586029</v>
       </c>
       <c r="F12">
-        <v>5.301216224406829</v>
+        <v>5.301216224406915</v>
       </c>
       <c r="G12">
-        <v>4.335866214182545</v>
+        <v>4.335866214182587</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.864242054664004</v>
+        <v>8.864242054664032</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3184558446002086</v>
+        <v>0.3184558446006776</v>
       </c>
       <c r="D13">
-        <v>0.1090409532654846</v>
+        <v>0.109040953265378</v>
       </c>
       <c r="E13">
         <v>0.2025646157394263</v>
@@ -845,7 +845,7 @@
         <v>5.248504833885448</v>
       </c>
       <c r="G13">
-        <v>4.29135485391464</v>
+        <v>4.291354853914626</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.00746914230416</v>
+        <v>16.00746914230405</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.801149384463628</v>
+        <v>8.801149384463542</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3103822309372362</v>
+        <v>0.3103822309370088</v>
       </c>
       <c r="D14">
-        <v>0.1031279075491369</v>
+        <v>0.1031279075490232</v>
       </c>
       <c r="E14">
         <v>0.1987457253446365</v>
       </c>
       <c r="F14">
-        <v>5.080119971582718</v>
+        <v>5.080119971582747</v>
       </c>
       <c r="G14">
-        <v>4.149279446978582</v>
+        <v>4.149279446978625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.597646070701302</v>
+        <v>8.597646070701359</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3055179593158641</v>
+        <v>0.3055179593160915</v>
       </c>
       <c r="D15">
         <v>0.09964432397897127</v>
@@ -918,10 +918,10 @@
         <v>0.1964245650619247</v>
       </c>
       <c r="F15">
-        <v>4.979546637601004</v>
+        <v>4.979546637600947</v>
       </c>
       <c r="G15">
-        <v>4.064505336075982</v>
+        <v>4.064505336075911</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.43339195930579</v>
+        <v>15.43339195930568</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2787300644141055</v>
+        <v>0.2787300644138924</v>
       </c>
       <c r="D16">
-        <v>0.08152507711531598</v>
+        <v>0.08152507711550783</v>
       </c>
       <c r="E16">
-        <v>0.1833697081049124</v>
+        <v>0.1833697081049266</v>
       </c>
       <c r="F16">
-        <v>4.437622756569652</v>
+        <v>4.437622756569681</v>
       </c>
       <c r="G16">
-        <v>3.608868646967522</v>
+        <v>3.608868646967579</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.22789158052822</v>
+        <v>14.22789158052825</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2631242821604047</v>
+        <v>0.2631242821603763</v>
       </c>
       <c r="D17">
         <v>0.07180303676793187</v>
       </c>
       <c r="E17">
-        <v>0.1755533798613058</v>
+        <v>0.1755533798613378</v>
       </c>
       <c r="F17">
-        <v>4.131370718673082</v>
+        <v>4.131370718673139</v>
       </c>
       <c r="G17">
-        <v>3.352302265736967</v>
+        <v>3.352302265736995</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.51494943400988</v>
+        <v>13.51494943400999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2544046044859414</v>
+        <v>0.2544046044857424</v>
       </c>
       <c r="D18">
-        <v>0.06663964103231734</v>
+        <v>0.06663964103221787</v>
       </c>
       <c r="E18">
-        <v>0.1711187554487807</v>
+        <v>0.1711187554487879</v>
       </c>
       <c r="F18">
         <v>3.963341474361158</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.251492423712051</v>
+        <v>0.2514924237120368</v>
       </c>
       <c r="D19">
         <v>0.06495828053528641</v>
       </c>
       <c r="E19">
-        <v>0.1696269681388394</v>
+        <v>0.1696269681388429</v>
       </c>
       <c r="F19">
         <v>3.907722137948781</v>
       </c>
       <c r="G19">
-        <v>3.165395744295793</v>
+        <v>3.165395744295822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.97835675396925</v>
+        <v>12.97835675396922</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.08804679186332</v>
+        <v>7.088046791863292</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2647580546372694</v>
+        <v>0.2647580546370705</v>
       </c>
       <c r="D20">
-        <v>0.07279195758831492</v>
+        <v>0.0727919575884215</v>
       </c>
       <c r="E20">
-        <v>0.1763789197833781</v>
+        <v>0.1763789197833887</v>
       </c>
       <c r="F20">
-        <v>4.163101350353998</v>
+        <v>4.163101350354083</v>
       </c>
       <c r="G20">
-        <v>3.378852056289347</v>
+        <v>3.378852056289404</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.58996007626473</v>
+        <v>13.58996007626493</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.432041523107074</v>
+        <v>7.432041523107046</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3127363441516451</v>
+        <v>0.3127363441514319</v>
       </c>
       <c r="D21">
-        <v>0.104835145925712</v>
+        <v>0.1048351459256054</v>
       </c>
       <c r="E21">
         <v>0.199863593662343</v>
@@ -1149,7 +1149,7 @@
         <v>5.12903054393567</v>
       </c>
       <c r="G21">
-        <v>4.190529740800585</v>
+        <v>4.190529740800571</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.75433383493862</v>
+        <v>15.75433383493859</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.347588932932581</v>
+        <v>0.3475889329325099</v>
       </c>
       <c r="D22">
-        <v>0.1317387285270968</v>
+        <v>0.1317387285270044</v>
       </c>
       <c r="E22">
-        <v>0.2159921713402824</v>
+        <v>0.2159921713402966</v>
       </c>
       <c r="F22">
-        <v>5.87107416370867</v>
+        <v>5.871074163708613</v>
       </c>
       <c r="G22">
-        <v>4.818118013543696</v>
+        <v>4.818118013543611</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.28101545380895</v>
+        <v>17.28101545380883</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3285897244357869</v>
+        <v>0.328589724435929</v>
       </c>
       <c r="D23">
-        <v>0.1166944618490362</v>
+        <v>0.1166944618489438</v>
       </c>
       <c r="E23">
-        <v>0.2072982216835015</v>
+        <v>0.2072982216835157</v>
       </c>
       <c r="F23">
-        <v>5.462416119660674</v>
+        <v>5.462416119660475</v>
       </c>
       <c r="G23">
-        <v>4.472092924742455</v>
+        <v>4.472092924742284</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.453463275876</v>
+        <v>16.45346327587583</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.055428207319892</v>
+        <v>9.055428207319807</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2640186513781373</v>
+        <v>0.2640186513781515</v>
       </c>
       <c r="D24">
-        <v>0.07234355921379176</v>
+        <v>0.07234355921400493</v>
       </c>
       <c r="E24">
-        <v>0.1760055113792447</v>
+        <v>0.1760055113792589</v>
       </c>
       <c r="F24">
-        <v>4.148731242478135</v>
+        <v>4.148731242478192</v>
       </c>
       <c r="G24">
-        <v>3.36682727225832</v>
+        <v>3.366827272258377</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.412929187814342</v>
+        <v>7.412929187814399</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2039953886402799</v>
+        <v>0.2039953886407346</v>
       </c>
       <c r="D25">
-        <v>0.0406232533896862</v>
+        <v>0.04062325338979633</v>
       </c>
       <c r="E25">
-        <v>0.1445408226237532</v>
+        <v>0.144540822623739</v>
       </c>
       <c r="F25">
-        <v>3.036898562441706</v>
+        <v>3.03689856244165</v>
       </c>
       <c r="G25">
-        <v>2.441833197328265</v>
+        <v>2.441833197328222</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.83670673181598</v>
+        <v>5.836706731815923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1644447161182256</v>
+        <v>0.1644447161182399</v>
       </c>
       <c r="D2">
-        <v>0.02494178603098973</v>
+        <v>0.02494178603110342</v>
       </c>
       <c r="E2">
-        <v>0.1225670745227561</v>
+        <v>0.1225670745227738</v>
       </c>
       <c r="F2">
-        <v>2.367131072379195</v>
+        <v>2.367131072379209</v>
       </c>
       <c r="G2">
-        <v>1.890899800070429</v>
+        <v>1.890899800070443</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.813533725174295</v>
+        <v>8.813533725174381</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>4.76971908480499</v>
+        <v>4.769719084805004</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1394424775206318</v>
+        <v>0.1394424775202339</v>
       </c>
       <c r="D3">
-        <v>0.01731109177081791</v>
+        <v>0.01731109177072909</v>
       </c>
       <c r="E3">
-        <v>0.1081675296891866</v>
+        <v>0.1081675296891902</v>
       </c>
       <c r="F3">
-        <v>1.972343986144836</v>
+        <v>1.972343986144779</v>
       </c>
       <c r="G3">
-        <v>1.569164791306619</v>
+        <v>1.569164791306591</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.56416284064349</v>
+        <v>7.564162840643405</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>4.082335370878994</v>
+        <v>4.082335370879008</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1247263613151972</v>
+        <v>0.1247263613154246</v>
       </c>
       <c r="D4">
-        <v>0.01370294845854048</v>
+        <v>0.0137029484586364</v>
       </c>
       <c r="E4">
-        <v>0.09950819206430594</v>
+        <v>0.09950819206428463</v>
       </c>
       <c r="F4">
         <v>1.751380892299466</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.672638360745751</v>
+        <v>3.672638360745808</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1188589856044615</v>
+        <v>0.1188589856048594</v>
       </c>
       <c r="D5">
-        <v>0.01245646946371082</v>
+        <v>0.01245646946351897</v>
       </c>
       <c r="E5">
-        <v>0.09601788988870297</v>
+        <v>0.09601788988872073</v>
       </c>
       <c r="F5">
-        <v>1.665810409811982</v>
+        <v>1.665810409811996</v>
       </c>
       <c r="G5">
-        <v>1.321373213482147</v>
+        <v>1.321373213482175</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.515256733259719</v>
+        <v>6.515256733259804</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.508163518306603</v>
+        <v>3.508163518306645</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1178917558488592</v>
+        <v>0.1178917558486603</v>
       </c>
       <c r="D6">
-        <v>0.01226181136614812</v>
+        <v>0.01226181136595272</v>
       </c>
       <c r="E6">
         <v>0.09544045959745517</v>
       </c>
       <c r="F6">
-        <v>1.651848042801959</v>
+        <v>1.651848042801944</v>
       </c>
       <c r="G6">
         <v>1.31013681715622</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.465485157355857</v>
+        <v>6.465485157355914</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.480986130338039</v>
+        <v>3.48098613033801</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1246467432306559</v>
+        <v>0.1246467432306702</v>
       </c>
       <c r="D7">
-        <v>0.01368528700889371</v>
+        <v>0.01368528700890792</v>
       </c>
       <c r="E7">
-        <v>0.09946097371873108</v>
+        <v>0.09946097371873464</v>
       </c>
       <c r="F7">
         <v>1.750209834248722</v>
       </c>
       <c r="G7">
-        <v>1.389394125346271</v>
+        <v>1.389394125346257</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.670410902232888</v>
+        <v>3.670410902232874</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1556720228349633</v>
+        <v>0.1556720228349775</v>
       </c>
       <c r="D8">
-        <v>0.02205570573675431</v>
+        <v>0.02205570573666549</v>
       </c>
       <c r="E8">
-        <v>0.1175594866374539</v>
+        <v>0.1175594866374716</v>
       </c>
       <c r="F8">
-        <v>2.225948955040622</v>
+        <v>2.225948955040593</v>
       </c>
       <c r="G8">
         <v>1.775547159755106</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2233094015339105</v>
+        <v>0.2233094015338963</v>
       </c>
       <c r="D9">
-        <v>0.04981090043835579</v>
+        <v>0.04981090043846237</v>
       </c>
       <c r="E9">
-        <v>0.1549133054539809</v>
+        <v>0.1549133054539489</v>
       </c>
       <c r="F9">
-        <v>3.382608457133358</v>
+        <v>3.382608457133387</v>
       </c>
       <c r="G9">
-        <v>2.728219917464131</v>
+        <v>2.728219917464173</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2805487516505281</v>
+        <v>0.2805487516502581</v>
       </c>
       <c r="D10">
-        <v>0.08269809641322468</v>
+        <v>0.08269809641321757</v>
       </c>
       <c r="E10">
-        <v>0.1842705413246932</v>
+        <v>0.1842705413246861</v>
       </c>
       <c r="F10">
-        <v>4.473769903137168</v>
+        <v>4.473769903137224</v>
       </c>
       <c r="G10">
-        <v>3.639197011478018</v>
+        <v>3.639197011478117</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.31046297359751</v>
+        <v>14.31046297359757</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.838496077609051</v>
+        <v>7.838496077609079</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.309447367323699</v>
+        <v>0.3094473673230596</v>
       </c>
       <c r="D11">
-        <v>0.1024537884467307</v>
+        <v>0.1024537884466525</v>
       </c>
       <c r="E11">
-        <v>0.198300806035796</v>
+        <v>0.1983008060357889</v>
       </c>
       <c r="F11">
-        <v>5.060739501652932</v>
+        <v>5.060739501652847</v>
       </c>
       <c r="G11">
-        <v>4.132938479199197</v>
+        <v>4.13293847919914</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15.60830386083526</v>
+        <v>15.60830386083538</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.574028948491758</v>
+        <v>8.57402894849173</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3209655386150985</v>
+        <v>0.3209655386153685</v>
       </c>
       <c r="D12">
         <v>0.1109123592250896</v>
       </c>
       <c r="E12">
-        <v>0.2037431255586029</v>
+        <v>0.2037431255585744</v>
       </c>
       <c r="F12">
-        <v>5.301216224406915</v>
+        <v>5.301216224406829</v>
       </c>
       <c r="G12">
-        <v>4.335866214182587</v>
+        <v>4.335866214182545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.864242054664032</v>
+        <v>8.864242054664004</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3184558446006776</v>
+        <v>0.3184558446002086</v>
       </c>
       <c r="D13">
-        <v>0.109040953265378</v>
+        <v>0.1090409532654846</v>
       </c>
       <c r="E13">
         <v>0.2025646157394263</v>
@@ -845,7 +845,7 @@
         <v>5.248504833885448</v>
       </c>
       <c r="G13">
-        <v>4.291354853914626</v>
+        <v>4.29135485391464</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.00746914230405</v>
+        <v>16.00746914230416</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.801149384463542</v>
+        <v>8.801149384463628</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3103822309370088</v>
+        <v>0.3103822309372362</v>
       </c>
       <c r="D14">
-        <v>0.1031279075490232</v>
+        <v>0.1031279075491369</v>
       </c>
       <c r="E14">
         <v>0.1987457253446365</v>
       </c>
       <c r="F14">
-        <v>5.080119971582747</v>
+        <v>5.080119971582718</v>
       </c>
       <c r="G14">
-        <v>4.149279446978625</v>
+        <v>4.149279446978582</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.597646070701359</v>
+        <v>8.597646070701302</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3055179593160915</v>
+        <v>0.3055179593158641</v>
       </c>
       <c r="D15">
         <v>0.09964432397897127</v>
@@ -918,10 +918,10 @@
         <v>0.1964245650619247</v>
       </c>
       <c r="F15">
-        <v>4.979546637600947</v>
+        <v>4.979546637601004</v>
       </c>
       <c r="G15">
-        <v>4.064505336075911</v>
+        <v>4.064505336075982</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.43339195930568</v>
+        <v>15.43339195930579</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2787300644138924</v>
+        <v>0.2787300644141055</v>
       </c>
       <c r="D16">
-        <v>0.08152507711550783</v>
+        <v>0.08152507711531598</v>
       </c>
       <c r="E16">
-        <v>0.1833697081049266</v>
+        <v>0.1833697081049124</v>
       </c>
       <c r="F16">
-        <v>4.437622756569681</v>
+        <v>4.437622756569652</v>
       </c>
       <c r="G16">
-        <v>3.608868646967579</v>
+        <v>3.608868646967522</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.22789158052825</v>
+        <v>14.22789158052822</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2631242821603763</v>
+        <v>0.2631242821604047</v>
       </c>
       <c r="D17">
         <v>0.07180303676793187</v>
       </c>
       <c r="E17">
-        <v>0.1755533798613378</v>
+        <v>0.1755533798613058</v>
       </c>
       <c r="F17">
-        <v>4.131370718673139</v>
+        <v>4.131370718673082</v>
       </c>
       <c r="G17">
-        <v>3.352302265736995</v>
+        <v>3.352302265736967</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.51494943400999</v>
+        <v>13.51494943400988</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2544046044857424</v>
+        <v>0.2544046044859414</v>
       </c>
       <c r="D18">
-        <v>0.06663964103221787</v>
+        <v>0.06663964103231734</v>
       </c>
       <c r="E18">
-        <v>0.1711187554487879</v>
+        <v>0.1711187554487807</v>
       </c>
       <c r="F18">
         <v>3.963341474361158</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2514924237120368</v>
+        <v>0.251492423712051</v>
       </c>
       <c r="D19">
         <v>0.06495828053528641</v>
       </c>
       <c r="E19">
-        <v>0.1696269681388429</v>
+        <v>0.1696269681388394</v>
       </c>
       <c r="F19">
         <v>3.907722137948781</v>
       </c>
       <c r="G19">
-        <v>3.165395744295822</v>
+        <v>3.165395744295793</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.97835675396922</v>
+        <v>12.97835675396925</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.088046791863292</v>
+        <v>7.08804679186332</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2647580546370705</v>
+        <v>0.2647580546372694</v>
       </c>
       <c r="D20">
-        <v>0.0727919575884215</v>
+        <v>0.07279195758831492</v>
       </c>
       <c r="E20">
-        <v>0.1763789197833887</v>
+        <v>0.1763789197833781</v>
       </c>
       <c r="F20">
-        <v>4.163101350354083</v>
+        <v>4.163101350353998</v>
       </c>
       <c r="G20">
-        <v>3.378852056289404</v>
+        <v>3.378852056289347</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.58996007626493</v>
+        <v>13.58996007626473</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.432041523107046</v>
+        <v>7.432041523107074</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3127363441514319</v>
+        <v>0.3127363441516451</v>
       </c>
       <c r="D21">
-        <v>0.1048351459256054</v>
+        <v>0.104835145925712</v>
       </c>
       <c r="E21">
         <v>0.199863593662343</v>
@@ -1149,7 +1149,7 @@
         <v>5.12903054393567</v>
       </c>
       <c r="G21">
-        <v>4.190529740800571</v>
+        <v>4.190529740800585</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.75433383493859</v>
+        <v>15.75433383493862</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3475889329325099</v>
+        <v>0.347588932932581</v>
       </c>
       <c r="D22">
-        <v>0.1317387285270044</v>
+        <v>0.1317387285270968</v>
       </c>
       <c r="E22">
-        <v>0.2159921713402966</v>
+        <v>0.2159921713402824</v>
       </c>
       <c r="F22">
-        <v>5.871074163708613</v>
+        <v>5.87107416370867</v>
       </c>
       <c r="G22">
-        <v>4.818118013543611</v>
+        <v>4.818118013543696</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.28101545380883</v>
+        <v>17.28101545380895</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.328589724435929</v>
+        <v>0.3285897244357869</v>
       </c>
       <c r="D23">
-        <v>0.1166944618489438</v>
+        <v>0.1166944618490362</v>
       </c>
       <c r="E23">
-        <v>0.2072982216835157</v>
+        <v>0.2072982216835015</v>
       </c>
       <c r="F23">
-        <v>5.462416119660475</v>
+        <v>5.462416119660674</v>
       </c>
       <c r="G23">
-        <v>4.472092924742284</v>
+        <v>4.472092924742455</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.45346327587583</v>
+        <v>16.453463275876</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.055428207319807</v>
+        <v>9.055428207319892</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2640186513781515</v>
+        <v>0.2640186513781373</v>
       </c>
       <c r="D24">
-        <v>0.07234355921400493</v>
+        <v>0.07234355921379176</v>
       </c>
       <c r="E24">
-        <v>0.1760055113792589</v>
+        <v>0.1760055113792447</v>
       </c>
       <c r="F24">
-        <v>4.148731242478192</v>
+        <v>4.148731242478135</v>
       </c>
       <c r="G24">
-        <v>3.366827272258377</v>
+        <v>3.36682727225832</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.412929187814399</v>
+        <v>7.412929187814342</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2039953886407346</v>
+        <v>0.2039953886402799</v>
       </c>
       <c r="D25">
-        <v>0.04062325338979633</v>
+        <v>0.0406232533896862</v>
       </c>
       <c r="E25">
-        <v>0.144540822623739</v>
+        <v>0.1445408226237532</v>
       </c>
       <c r="F25">
-        <v>3.03689856244165</v>
+        <v>3.036898562441706</v>
       </c>
       <c r="G25">
-        <v>2.441833197328222</v>
+        <v>2.441833197328265</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.836706731815923</v>
+        <v>5.83670673181598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1644447161182399</v>
+        <v>0.1644184987655137</v>
       </c>
       <c r="D2">
-        <v>0.02494178603110342</v>
+        <v>0.02475985352994314</v>
       </c>
       <c r="E2">
-        <v>0.1225670745227738</v>
+        <v>0.1225454418591774</v>
       </c>
       <c r="F2">
-        <v>2.367131072379209</v>
+        <v>2.362114306238354</v>
       </c>
       <c r="G2">
-        <v>1.890899800070443</v>
+        <v>0.6475512207017715</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.241680597556183</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.813533725174381</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.812335188606426</v>
       </c>
       <c r="L2">
-        <v>4.769719084805004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4.769090748291376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1394424775202339</v>
+        <v>0.1394249774833014</v>
       </c>
       <c r="D3">
-        <v>0.01731109177072909</v>
+        <v>0.01716880397215448</v>
       </c>
       <c r="E3">
-        <v>0.1081675296891902</v>
+        <v>0.1081461048791397</v>
       </c>
       <c r="F3">
-        <v>1.972343986144779</v>
+        <v>1.968208494748623</v>
       </c>
       <c r="G3">
-        <v>1.569164791306591</v>
+        <v>0.533934202071805</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.034680024038579</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.564162840643405</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.563341336883184</v>
       </c>
       <c r="L3">
-        <v>4.082335370879008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.081914509551865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1247263613154246</v>
+        <v>0.1247131264602785</v>
       </c>
       <c r="D4">
-        <v>0.0137029484586364</v>
+        <v>0.01358126916314717</v>
       </c>
       <c r="E4">
-        <v>0.09950819206428463</v>
+        <v>0.09948764354914985</v>
       </c>
       <c r="F4">
-        <v>1.751380892299466</v>
+        <v>1.747730850107885</v>
       </c>
       <c r="G4">
-        <v>1.390339092138348</v>
+        <v>0.4703934297642007</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9200163465692413</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.816228285507151</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.815596392058495</v>
       </c>
       <c r="L4">
-        <v>3.672638360745808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.672320260719829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1188589856048594</v>
+        <v>0.1188472811423225</v>
       </c>
       <c r="D5">
-        <v>0.01245646946351897</v>
+        <v>0.01234243960507442</v>
       </c>
       <c r="E5">
-        <v>0.09601788988872073</v>
+        <v>0.09599786473660998</v>
       </c>
       <c r="F5">
-        <v>1.665810409811996</v>
+        <v>1.662347197839068</v>
       </c>
       <c r="G5">
-        <v>1.321373213482175</v>
+        <v>0.4457936093267421</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8758905226040525</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.515256733259804</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.514693939682132</v>
       </c>
       <c r="L5">
-        <v>3.508163518306645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.50788250329839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1178917558486603</v>
+        <v>0.1178802945545954</v>
       </c>
       <c r="D6">
-        <v>0.01226181136595272</v>
+        <v>0.01214901117641887</v>
       </c>
       <c r="E6">
-        <v>0.09544045959745517</v>
+        <v>0.09542053081361956</v>
       </c>
       <c r="F6">
-        <v>1.651848042801944</v>
+        <v>1.648415263922573</v>
       </c>
       <c r="G6">
-        <v>1.31013681715622</v>
+        <v>0.4417799755153311</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8687069540500687</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.465485157355914</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.464933402421451</v>
       </c>
       <c r="L6">
-        <v>3.48098613033801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.480711018141776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1246467432306702</v>
+        <v>0.1246335297819883</v>
       </c>
       <c r="D7">
-        <v>0.01368528700890792</v>
+        <v>0.01356371369001153</v>
       </c>
       <c r="E7">
-        <v>0.09946097371873464</v>
+        <v>0.09944043161521066</v>
       </c>
       <c r="F7">
-        <v>1.750209834248722</v>
+        <v>1.74656235279592</v>
       </c>
       <c r="G7">
-        <v>1.389394125346257</v>
+        <v>0.4700567518855365</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9194113459959539</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.812155019543496</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.811524088381333</v>
       </c>
       <c r="L7">
-        <v>3.670410902232874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.670093320157861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1556720228349775</v>
+        <v>0.1556490827302497</v>
       </c>
       <c r="D8">
-        <v>0.02205570573666549</v>
+        <v>0.02188834830724318</v>
       </c>
       <c r="E8">
-        <v>0.1175594866374716</v>
+        <v>0.117537755839269</v>
       </c>
       <c r="F8">
-        <v>2.225948955040593</v>
+        <v>2.221249670285118</v>
       </c>
       <c r="G8">
-        <v>1.775547159755106</v>
+        <v>0.6069048597401974</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.167375371166386</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.378101688187598</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.377043484136863</v>
       </c>
       <c r="L8">
-        <v>4.529727330920664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.529176616987883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2233094015338963</v>
+        <v>0.2232543569616041</v>
       </c>
       <c r="D9">
-        <v>0.04981090043846237</v>
+        <v>0.04951190918958304</v>
       </c>
       <c r="E9">
-        <v>0.1549133054539489</v>
+        <v>0.1548964117037919</v>
       </c>
       <c r="F9">
-        <v>3.382608457133387</v>
+        <v>3.375211162446476</v>
       </c>
       <c r="G9">
-        <v>2.728219917464173</v>
+        <v>0.9404652176232418</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.783130011092496</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.65939638895736</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.65701288272896</v>
       </c>
       <c r="L9">
-        <v>6.349341847603029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6.348045905025941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2805487516502581</v>
+        <v>0.2804518411232664</v>
       </c>
       <c r="D10">
-        <v>0.08269809641321757</v>
+        <v>0.0822495109788548</v>
       </c>
       <c r="E10">
-        <v>0.1842705413246861</v>
+        <v>0.1842637907695135</v>
       </c>
       <c r="F10">
-        <v>4.473769903137224</v>
+        <v>4.463567418343246</v>
       </c>
       <c r="G10">
-        <v>3.639197011478117</v>
+        <v>1.256317143416652</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.374876143452553</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.31046297359757</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.30645399810857</v>
       </c>
       <c r="L10">
-        <v>7.838496077609079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7.836263015143572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3094473673230596</v>
+        <v>0.3093227003865451</v>
       </c>
       <c r="D11">
-        <v>0.1024537884466525</v>
+        <v>0.1019137241619674</v>
       </c>
       <c r="E11">
-        <v>0.1983008060357889</v>
+        <v>0.1983008029466973</v>
       </c>
       <c r="F11">
-        <v>5.060739501652847</v>
+        <v>5.0488913862103</v>
       </c>
       <c r="G11">
-        <v>4.13293847919914</v>
+        <v>1.426671854063954</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.696328706882994</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15.60830386083538</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.60325563531367</v>
       </c>
       <c r="L11">
-        <v>8.57402894849173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8.571188369498259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3209655386153685</v>
+        <v>0.3208283239205798</v>
       </c>
       <c r="D12">
-        <v>0.1109123592250896</v>
+        <v>0.1103323769573095</v>
       </c>
       <c r="E12">
-        <v>0.2037431255585744</v>
+        <v>0.203746064756622</v>
       </c>
       <c r="F12">
-        <v>5.301216224406829</v>
+        <v>5.288661253179328</v>
       </c>
       <c r="G12">
-        <v>4.335866214182545</v>
+        <v>1.496550021253739</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.828557612548678</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.1182202288511</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.11270967711221</v>
       </c>
       <c r="L12">
-        <v>8.864242054664004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>8.861129556576088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3184558446002086</v>
+        <v>0.3183214417062175</v>
       </c>
       <c r="D13">
-        <v>0.1090409532654846</v>
+        <v>0.10846984775376</v>
       </c>
       <c r="E13">
-        <v>0.2025646157394263</v>
+        <v>0.2025669025355299</v>
       </c>
       <c r="F13">
-        <v>5.248504833885448</v>
+        <v>5.236106540385464</v>
       </c>
       <c r="G13">
-        <v>4.29135485391464</v>
+        <v>1.481228921811635</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.799548746027554</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.00746914230416</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.00206182994975</v>
       </c>
       <c r="L13">
-        <v>8.801149384463628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>8.798097688319444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3103822309372362</v>
+        <v>0.3102565790426439</v>
       </c>
       <c r="D14">
-        <v>0.1031279075491369</v>
+        <v>0.1025846805848332</v>
       </c>
       <c r="E14">
-        <v>0.1987457253446365</v>
+        <v>0.1987459560234583</v>
       </c>
       <c r="F14">
-        <v>5.080119971582718</v>
+        <v>5.068215630656368</v>
       </c>
       <c r="G14">
-        <v>4.149279446978582</v>
+        <v>1.432301669325554</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.706974363782464</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>15.64984627214869</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.64476160111721</v>
       </c>
       <c r="L14">
-        <v>8.597646070701302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>8.594784090774311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3055179593158641</v>
+        <v>0.3053973696999037</v>
       </c>
       <c r="D15">
-        <v>0.09964432397897127</v>
+        <v>0.0991174078142123</v>
       </c>
       <c r="E15">
-        <v>0.1964245650619247</v>
+        <v>0.1964235894787763</v>
       </c>
       <c r="F15">
-        <v>4.979546637601004</v>
+        <v>4.967932701281541</v>
       </c>
       <c r="G15">
-        <v>4.064505336075982</v>
+        <v>1.403089675497142</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.651750941723478</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.43339195930579</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.42849489645513</v>
       </c>
       <c r="L15">
-        <v>8.474641124231141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>8.471889242940307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2787300644141055</v>
+        <v>0.2786347368006119</v>
       </c>
       <c r="D16">
-        <v>0.08152507711531598</v>
+        <v>0.08108186175491738</v>
       </c>
       <c r="E16">
-        <v>0.1833697081049124</v>
+        <v>0.1833625659144218</v>
       </c>
       <c r="F16">
-        <v>4.437622756569652</v>
+        <v>4.427518191460933</v>
       </c>
       <c r="G16">
-        <v>3.608868646967522</v>
+        <v>1.245836174047227</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.355144916699842</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.22789158052822</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.22394265526432</v>
       </c>
       <c r="L16">
-        <v>7.791848246133924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>7.789650113211479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2631242821604047</v>
+        <v>0.2630418069104223</v>
       </c>
       <c r="D17">
-        <v>0.07180303676793187</v>
+        <v>0.07140414647414417</v>
       </c>
       <c r="E17">
-        <v>0.1755533798613058</v>
+        <v>0.1755430518335679</v>
       </c>
       <c r="F17">
-        <v>4.131370718673082</v>
+        <v>4.122081104047254</v>
       </c>
       <c r="G17">
-        <v>3.352302265736967</v>
+        <v>1.157085095203669</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.188301313118842</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.51494943400988</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.51149170497149</v>
       </c>
       <c r="L17">
-        <v>7.389801612902005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>7.387888392405529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2544046044859414</v>
+        <v>0.2543287672281025</v>
       </c>
       <c r="D18">
-        <v>0.06663964103231734</v>
+        <v>0.06626419835024677</v>
       </c>
       <c r="E18">
-        <v>0.1711187554487807</v>
+        <v>0.1711067898627228</v>
       </c>
       <c r="F18">
-        <v>3.963341474361158</v>
+        <v>3.954488349053889</v>
       </c>
       <c r="G18">
-        <v>3.211840098956742</v>
+        <v>1.10842734957842</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.09702098019379</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.11311990484995</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.10991861524718</v>
       </c>
       <c r="L18">
-        <v>7.163763843449289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7.161998758628016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.251492423712051</v>
+        <v>0.2514187207892746</v>
       </c>
       <c r="D19">
-        <v>0.06495828053528641</v>
+        <v>0.06459046590077833</v>
       </c>
       <c r="E19">
-        <v>0.1696269681388394</v>
+        <v>0.1696144794551415</v>
       </c>
       <c r="F19">
-        <v>3.907722137948781</v>
+        <v>3.899011911955341</v>
       </c>
       <c r="G19">
-        <v>3.165395744295793</v>
+        <v>1.092326972206749</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.06684914370237</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.97835675396925</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.97523835294163</v>
       </c>
       <c r="L19">
-        <v>7.08804679186332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>7.086329492417292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2647580546372694</v>
+        <v>0.2646742934222317</v>
       </c>
       <c r="D20">
-        <v>0.07279195758831492</v>
+        <v>0.07238857086419159</v>
       </c>
       <c r="E20">
-        <v>0.1763789197833781</v>
+        <v>0.1763689102114228</v>
       </c>
       <c r="F20">
-        <v>4.163101350353998</v>
+        <v>4.153728483496621</v>
       </c>
       <c r="G20">
-        <v>3.378852056289347</v>
+        <v>1.166276563742187</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.205559966626197</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.58996007626473</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.58645289425459</v>
       </c>
       <c r="L20">
-        <v>7.432041523107074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>7.430099685514449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3127363441516451</v>
+        <v>0.3126081862494345</v>
       </c>
       <c r="D21">
-        <v>0.104835145925712</v>
+        <v>0.104283895342185</v>
       </c>
       <c r="E21">
-        <v>0.199863593662343</v>
+        <v>0.1998644170183965</v>
       </c>
       <c r="F21">
-        <v>5.12903054393567</v>
+        <v>5.116983737469894</v>
       </c>
       <c r="G21">
-        <v>4.190529740800585</v>
+        <v>1.446511066808668</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.73384947533485</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.75433383493862</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.74915655796738</v>
       </c>
       <c r="L21">
-        <v>8.657068415963835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>8.654152030319494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.347588932932581</v>
+        <v>0.3474189952600426</v>
       </c>
       <c r="D22">
-        <v>0.1317387285270968</v>
+        <v>0.1310579858366836</v>
       </c>
       <c r="E22">
-        <v>0.2159921713402824</v>
+        <v>0.2160023841043994</v>
       </c>
       <c r="F22">
-        <v>5.87107416370867</v>
+        <v>5.856758329243064</v>
       </c>
       <c r="G22">
-        <v>4.818118013543696</v>
+        <v>1.662328710935867</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.143011301377669</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.28101545380895</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.27431714467235</v>
       </c>
       <c r="L22">
-        <v>9.528715137963729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>9.524900031622508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3285897244357869</v>
+        <v>0.328443691176119</v>
       </c>
       <c r="D23">
-        <v>0.1166944618490362</v>
+        <v>0.1160868795820846</v>
       </c>
       <c r="E23">
-        <v>0.2072982216835015</v>
+        <v>0.2073031797197515</v>
       </c>
       <c r="F23">
-        <v>5.462416119660674</v>
+        <v>5.449375726158394</v>
       </c>
       <c r="G23">
-        <v>4.472092924742455</v>
+        <v>1.543418578331398</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.917355575027955</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.453463275876</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.44763021952969</v>
       </c>
       <c r="L23">
-        <v>9.055428207319892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>9.052125484384703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2640186513781373</v>
+        <v>0.2639354738371367</v>
       </c>
       <c r="D24">
-        <v>0.07234355921379176</v>
+        <v>0.07194221154301061</v>
       </c>
       <c r="E24">
-        <v>0.1760055113792447</v>
+        <v>0.1759953572348785</v>
       </c>
       <c r="F24">
-        <v>4.148731242478135</v>
+        <v>4.139396111776591</v>
       </c>
       <c r="G24">
-        <v>3.36682727225832</v>
+        <v>1.162113833796127</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.197743078286265</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.55602304717314</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.55253830205288</v>
       </c>
       <c r="L24">
-        <v>7.412929187814342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>7.411000335791414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2039953886402799</v>
+        <v>0.2039512057449286</v>
       </c>
       <c r="D25">
-        <v>0.0406232533896862</v>
+        <v>0.04036648006729493</v>
       </c>
       <c r="E25">
-        <v>0.1445408226237532</v>
+        <v>0.14452165626696</v>
       </c>
       <c r="F25">
-        <v>3.036898562441706</v>
+        <v>3.030332956740068</v>
       </c>
       <c r="G25">
-        <v>2.441833197328265</v>
+        <v>0.8406325921181832</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.597599101389108</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.73963186595219</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.73768629230028</v>
       </c>
       <c r="L25">
-        <v>5.83670673181598</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>5.835659561667825</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1644184987655137</v>
+        <v>0.187317107487857</v>
       </c>
       <c r="D2">
-        <v>0.02475985352994314</v>
+        <v>0.8120961857422344</v>
       </c>
       <c r="E2">
-        <v>0.1225454418591774</v>
+        <v>0.9165246540353138</v>
       </c>
       <c r="F2">
-        <v>2.362114306238354</v>
+        <v>3.568551057439024</v>
       </c>
       <c r="G2">
-        <v>0.6475512207017715</v>
+        <v>0.000614390833327232</v>
       </c>
       <c r="H2">
-        <v>1.241680597556183</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.392073572622252</v>
       </c>
       <c r="K2">
-        <v>8.812335188606426</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.769090748291376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>37.14728887494164</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3.675208299179445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1394249774833014</v>
+        <v>0.1513165377571681</v>
       </c>
       <c r="D3">
-        <v>0.01716880397215448</v>
+        <v>0.6669894205487594</v>
       </c>
       <c r="E3">
-        <v>0.1081461048791397</v>
+        <v>0.7565739595354728</v>
       </c>
       <c r="F3">
-        <v>1.968208494748623</v>
+        <v>2.476667545755646</v>
       </c>
       <c r="G3">
-        <v>0.533934202071805</v>
+        <v>0.0006584040771356278</v>
       </c>
       <c r="H3">
-        <v>1.034680024038579</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.111006113875106</v>
       </c>
       <c r="K3">
-        <v>7.563341336883184</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.081914509551865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>30.56211290258642</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.641242575178765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1247131264602785</v>
+        <v>0.1322731526544061</v>
       </c>
       <c r="D4">
-        <v>0.01358126916314717</v>
+        <v>0.5882330801552484</v>
       </c>
       <c r="E4">
-        <v>0.09948764354914985</v>
+        <v>0.6699081331081018</v>
       </c>
       <c r="F4">
-        <v>1.747730850107885</v>
+        <v>2.010786565708685</v>
       </c>
       <c r="G4">
-        <v>0.4703934297642007</v>
+        <v>0.0006825888305852971</v>
       </c>
       <c r="H4">
-        <v>0.9200163465692413</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9673245467334937</v>
       </c>
       <c r="K4">
-        <v>6.815596392058495</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.672320260719829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.01474640415688</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.181378978102146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1188472811423225</v>
+        <v>0.1250042741629755</v>
       </c>
       <c r="D5">
-        <v>0.01234243960507442</v>
+        <v>0.557798848168062</v>
       </c>
       <c r="E5">
-        <v>0.09599786473660998</v>
+        <v>0.6364129694053702</v>
       </c>
       <c r="F5">
-        <v>1.662347197839068</v>
+        <v>1.853380456825093</v>
       </c>
       <c r="G5">
-        <v>0.4457936093267421</v>
+        <v>0.0006920330111955548</v>
       </c>
       <c r="H5">
-        <v>0.8758905226040525</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9132674936630423</v>
       </c>
       <c r="K5">
-        <v>6.514693939682132</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.50788250329839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.6471645502042</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.021762734985998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1178802945545954</v>
+        <v>0.1238216265591205</v>
       </c>
       <c r="D6">
-        <v>0.01214901117641887</v>
+        <v>0.5528273543073965</v>
       </c>
       <c r="E6">
-        <v>0.09542053081361956</v>
+        <v>0.6309405027104091</v>
       </c>
       <c r="F6">
-        <v>1.648415263922573</v>
+        <v>1.828847748163497</v>
       </c>
       <c r="G6">
-        <v>0.4417799755153311</v>
+        <v>0.0006935821145374135</v>
       </c>
       <c r="H6">
-        <v>0.8687069540500687</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.9045107428043622</v>
       </c>
       <c r="K6">
-        <v>6.464933402421451</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.480711018141776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.42389824743481</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.996632509362414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1246335297819883</v>
+        <v>0.1321733867447961</v>
       </c>
       <c r="D7">
-        <v>0.01356371369001153</v>
+        <v>0.5878167787093105</v>
       </c>
       <c r="E7">
-        <v>0.09944043161521066</v>
+        <v>0.6694500146593185</v>
       </c>
       <c r="F7">
-        <v>1.74656235279592</v>
+        <v>2.00854935588967</v>
       </c>
       <c r="G7">
-        <v>0.4700567518855365</v>
+        <v>0.0006827175890859264</v>
       </c>
       <c r="H7">
-        <v>0.9194113459959539</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9665798067200768</v>
       </c>
       <c r="K7">
-        <v>6.811524088381333</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.670093320157861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.99602944333549</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.179128391786065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1556490827302497</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D8">
-        <v>0.02188834830724318</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E8">
-        <v>0.117537755839269</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F8">
-        <v>2.221249670285118</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G8">
-        <v>0.6069048597401974</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H8">
-        <v>1.167375371166386</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K8">
-        <v>8.377043484136863</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.529176616987883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2232543569616041</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D9">
-        <v>0.04951190918958304</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E9">
-        <v>0.1548964117037919</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F9">
-        <v>3.375211162446476</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G9">
-        <v>0.9404652176232418</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H9">
-        <v>1.783130011092496</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K9">
-        <v>11.65701288272896</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.348045905025941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2804518411232664</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D10">
-        <v>0.0822495109788548</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E10">
-        <v>0.1842637907695135</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F10">
-        <v>4.463567418343246</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G10">
-        <v>1.256317143416652</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H10">
-        <v>2.374876143452553</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K10">
-        <v>14.30645399810857</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.836263015143572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3093227003865451</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D11">
-        <v>0.1019137241619674</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E11">
-        <v>0.1983008029466973</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F11">
-        <v>5.0488913862103</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G11">
-        <v>1.426671854063954</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H11">
-        <v>2.696328706882994</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K11">
-        <v>15.60325563531367</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.571188369498259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3208283239205798</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D12">
-        <v>0.1103323769573095</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E12">
-        <v>0.203746064756622</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F12">
-        <v>5.288661253179328</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G12">
-        <v>1.496550021253739</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H12">
-        <v>2.828557612548678</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K12">
-        <v>16.11270967711221</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.861129556576088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3183214417062175</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D13">
-        <v>0.10846984775376</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E13">
-        <v>0.2025669025355299</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F13">
-        <v>5.236106540385464</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G13">
-        <v>1.481228921811635</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H13">
-        <v>2.799548746027554</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K13">
-        <v>16.00206182994975</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.798097688319444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3102565790426439</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D14">
-        <v>0.1025846805848332</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E14">
-        <v>0.1987459560234583</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F14">
-        <v>5.068215630656368</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G14">
-        <v>1.432301669325554</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H14">
-        <v>2.706974363782464</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K14">
-        <v>15.64476160111721</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.594784090774311</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3053973696999037</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D15">
-        <v>0.0991174078142123</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E15">
-        <v>0.1964235894787763</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F15">
-        <v>4.967932701281541</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G15">
-        <v>1.403089675497142</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H15">
-        <v>2.651750941723478</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K15">
-        <v>15.42849489645513</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.471889242940307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2786347368006119</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D16">
-        <v>0.08108186175491738</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E16">
-        <v>0.1833625659144218</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F16">
-        <v>4.427518191460933</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G16">
-        <v>1.245836174047227</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H16">
-        <v>2.355144916699842</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K16">
-        <v>14.22394265526432</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.789650113211479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2630418069104223</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D17">
-        <v>0.07140414647414417</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E17">
-        <v>0.1755430518335679</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F17">
-        <v>4.122081104047254</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G17">
-        <v>1.157085095203669</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H17">
-        <v>2.188301313118842</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K17">
-        <v>13.51149170497149</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.387888392405529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2543287672281025</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D18">
-        <v>0.06626419835024677</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E18">
-        <v>0.1711067898627228</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F18">
-        <v>3.954488349053889</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G18">
-        <v>1.10842734957842</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H18">
-        <v>2.09702098019379</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K18">
-        <v>13.10991861524718</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.161998758628016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2514187207892746</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D19">
-        <v>0.06459046590077833</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E19">
-        <v>0.1696144794551415</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F19">
-        <v>3.899011911955341</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G19">
-        <v>1.092326972206749</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H19">
-        <v>2.06684914370237</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K19">
-        <v>12.97523835294163</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.086329492417292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2646742934222317</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D20">
-        <v>0.07238857086419159</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E20">
-        <v>0.1763689102114228</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F20">
-        <v>4.153728483496621</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G20">
-        <v>1.166276563742187</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H20">
-        <v>2.205559966626197</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K20">
-        <v>13.58645289425459</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.430099685514449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3126081862494345</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D21">
-        <v>0.104283895342185</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E21">
-        <v>0.1998644170183965</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F21">
-        <v>5.116983737469894</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G21">
-        <v>1.446511066808668</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H21">
-        <v>2.73384947533485</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K21">
-        <v>15.74915655796738</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.654152030319494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3474189952600426</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D22">
-        <v>0.1310579858366836</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E22">
-        <v>0.2160023841043994</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F22">
-        <v>5.856758329243064</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G22">
-        <v>1.662328710935867</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H22">
-        <v>3.143011301377669</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K22">
-        <v>17.27431714467235</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.524900031622508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.328443691176119</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D23">
-        <v>0.1160868795820846</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E23">
-        <v>0.2073031797197515</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F23">
-        <v>5.449375726158394</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G23">
-        <v>1.543418578331398</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H23">
-        <v>2.917355575027955</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K23">
-        <v>16.44763021952969</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.052125484384703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2639354738371367</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D24">
-        <v>0.07194221154301061</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E24">
-        <v>0.1759953572348785</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F24">
-        <v>4.139396111776591</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G24">
-        <v>1.162113833796127</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H24">
-        <v>2.197743078286265</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K24">
-        <v>13.55253830205288</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.411000335791414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.268410678092337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2039512057449286</v>
+        <v>0.1740328752878639</v>
       </c>
       <c r="D25">
-        <v>0.04036648006729493</v>
+        <v>0.7591234188939495</v>
       </c>
       <c r="E25">
-        <v>0.14452165626696</v>
+        <v>0.858058779324395</v>
       </c>
       <c r="F25">
-        <v>3.030332956740068</v>
+        <v>3.133245745147278</v>
       </c>
       <c r="G25">
-        <v>0.8406325921181832</v>
+        <v>0.0006304144004411006</v>
       </c>
       <c r="H25">
-        <v>1.597599101389108</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.286782345082884</v>
       </c>
       <c r="K25">
-        <v>10.73768629230028</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.835659561667825</v>
+        <v>34.73404926346666</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.268410678092337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.187317107487857</v>
+        <v>0.01035260797889492</v>
       </c>
       <c r="D2">
-        <v>0.8120961857422344</v>
+        <v>0.0006872429547881698</v>
       </c>
       <c r="E2">
-        <v>0.9165246540353138</v>
+        <v>0.02379451626699414</v>
       </c>
       <c r="F2">
-        <v>3.568551057439024</v>
+        <v>3.104850191676576</v>
       </c>
       <c r="G2">
-        <v>0.000614390833327232</v>
+        <v>0.0008632139313411025</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.294440270566469</v>
       </c>
       <c r="J2">
-        <v>1.392073572622252</v>
+        <v>0.08617851552636324</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.593671500946698</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0558533442229141</v>
       </c>
       <c r="M2">
-        <v>37.14728887494164</v>
+        <v>0.6776115963362344</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.675208299179445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1513165377571681</v>
+        <v>0.009235735655259703</v>
       </c>
       <c r="D3">
-        <v>0.6669894205487594</v>
+        <v>0.0008965218386665086</v>
       </c>
       <c r="E3">
-        <v>0.7565739595354728</v>
+        <v>0.02335241206175542</v>
       </c>
       <c r="F3">
-        <v>2.476667545755646</v>
+        <v>2.964400110074848</v>
       </c>
       <c r="G3">
-        <v>0.0006584040771356278</v>
+        <v>0.0008724153373785105</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.190770365515988</v>
       </c>
       <c r="J3">
-        <v>1.111006113875106</v>
+        <v>0.08602793422550192</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.151682312711273</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05604020473185578</v>
       </c>
       <c r="M3">
-        <v>30.56211290258642</v>
+        <v>0.6008092972191221</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.641242575178765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1322731526544061</v>
+        <v>0.008554031647413751</v>
       </c>
       <c r="D4">
-        <v>0.5882330801552484</v>
+        <v>0.001039553497132362</v>
       </c>
       <c r="E4">
-        <v>0.6699081331081018</v>
+        <v>0.02310134929057561</v>
       </c>
       <c r="F4">
-        <v>2.010786565708685</v>
+        <v>2.883902308047539</v>
       </c>
       <c r="G4">
-        <v>0.0006825888305852971</v>
+        <v>0.0008782166305870208</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.131391315581439</v>
       </c>
       <c r="J4">
-        <v>0.9673245467334937</v>
+        <v>0.08603686309114167</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.885140087853642</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05620200225269834</v>
       </c>
       <c r="M4">
-        <v>27.01474640415688</v>
+        <v>0.5545743938621044</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.181378978102146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1250042741629755</v>
+        <v>0.008277135698570248</v>
       </c>
       <c r="D5">
-        <v>0.557798848168062</v>
+        <v>0.0011010167575074</v>
       </c>
       <c r="E5">
-        <v>0.6364129694053702</v>
+        <v>0.02300398908281931</v>
       </c>
       <c r="F5">
-        <v>1.853380456825093</v>
+        <v>2.852434366863903</v>
       </c>
       <c r="G5">
-        <v>0.0006920330111955548</v>
+        <v>0.000880620569574679</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.108188322039297</v>
       </c>
       <c r="J5">
-        <v>0.9132674936630423</v>
+        <v>0.08606488024371828</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.777597407755508</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05627945109835686</v>
       </c>
       <c r="M5">
-        <v>25.6471645502042</v>
+        <v>0.5359406708639725</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.021762734985998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1238216265591205</v>
+        <v>0.008231208890055797</v>
       </c>
       <c r="D6">
-        <v>0.5528273543073965</v>
+        <v>0.00111140161399681</v>
       </c>
       <c r="E6">
-        <v>0.6309405027104091</v>
+        <v>0.02298811657263578</v>
       </c>
       <c r="F6">
-        <v>1.828847748163497</v>
+        <v>2.847286822753873</v>
       </c>
       <c r="G6">
-        <v>0.0006935821145374135</v>
+        <v>0.0008810221981722022</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.104393315525414</v>
       </c>
       <c r="J6">
-        <v>0.9045107428043622</v>
+        <v>0.08607097393770502</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.759801064531302</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05629299804109955</v>
       </c>
       <c r="M6">
-        <v>25.42389824743481</v>
+        <v>0.5328584043957036</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.996632509362414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1321733867447961</v>
+        <v>0.008550293811900644</v>
       </c>
       <c r="D7">
-        <v>0.5878167787093105</v>
+        <v>0.001040370141651925</v>
       </c>
       <c r="E7">
-        <v>0.6694500146593185</v>
+        <v>0.02310001643753257</v>
       </c>
       <c r="F7">
-        <v>2.00854935588967</v>
+        <v>2.883472648595813</v>
       </c>
       <c r="G7">
-        <v>0.0006827175890859264</v>
+        <v>0.0008782488873442886</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.131074467004098</v>
       </c>
       <c r="J7">
-        <v>0.9665798067200768</v>
+        <v>0.08603714364181414</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.883685553894566</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05620300053421801</v>
       </c>
       <c r="M7">
-        <v>26.99602944333549</v>
+        <v>0.5543222841286166</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.179128391786065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1740328752878639</v>
+        <v>0.009966590625683835</v>
       </c>
       <c r="D8">
-        <v>0.7591234188939495</v>
+        <v>0.0007560804121606868</v>
       </c>
       <c r="E8">
-        <v>0.858058779324395</v>
+        <v>0.0236377343008618</v>
       </c>
       <c r="F8">
-        <v>3.133245745147278</v>
+        <v>3.055164251875226</v>
       </c>
       <c r="G8">
-        <v>0.0006304144004411006</v>
+        <v>0.0008663562075827438</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.257757120200111</v>
       </c>
       <c r="J8">
-        <v>1.286782345082884</v>
+        <v>0.08610485161229775</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.440179475622415</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05590780467875867</v>
       </c>
       <c r="M8">
-        <v>34.73404926346666</v>
+        <v>0.6509233724081724</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1740328752878639</v>
+        <v>0.01278272841105377</v>
       </c>
       <c r="D9">
-        <v>0.7591234188939495</v>
+        <v>0.0003387114385469125</v>
       </c>
       <c r="E9">
-        <v>0.858058779324395</v>
+        <v>0.02486300915606776</v>
       </c>
       <c r="F9">
-        <v>3.133245745147278</v>
+        <v>3.442757882203779</v>
       </c>
       <c r="G9">
-        <v>0.0006304144004411006</v>
+        <v>0.0008441507175876498</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.544115083037468</v>
       </c>
       <c r="J9">
-        <v>1.286782345082884</v>
+        <v>0.08709767112803135</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.577018301920191</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.05571830679964052</v>
       </c>
       <c r="M9">
-        <v>34.73404926346666</v>
+        <v>0.8489061850008781</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1740328752878639</v>
+        <v>0.01488672438155803</v>
       </c>
       <c r="D10">
-        <v>0.7591234188939495</v>
+        <v>0.0001579777563835982</v>
       </c>
       <c r="E10">
-        <v>0.858058779324395</v>
+        <v>0.02588162698552132</v>
       </c>
       <c r="F10">
-        <v>3.133245745147278</v>
+        <v>3.766942691555272</v>
       </c>
       <c r="G10">
-        <v>0.0006304144004411006</v>
+        <v>0.0008283818032713838</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.78389984737278</v>
       </c>
       <c r="J10">
-        <v>1.286782345082884</v>
+        <v>0.08843805541637906</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.45126970744883</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05584131857800045</v>
       </c>
       <c r="M10">
-        <v>34.73404926346666</v>
+        <v>1.001514094304312</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1740328752878639</v>
+        <v>0.01585467398679441</v>
       </c>
       <c r="D11">
-        <v>0.7591234188939495</v>
+        <v>0.0001141925900978169</v>
       </c>
       <c r="E11">
-        <v>0.858058779324395</v>
+        <v>0.02637444307628911</v>
       </c>
       <c r="F11">
-        <v>3.133245745147278</v>
+        <v>3.925145956235866</v>
       </c>
       <c r="G11">
-        <v>0.0006304144004411006</v>
+        <v>0.0008212920867573467</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.900986211727897</v>
       </c>
       <c r="J11">
-        <v>1.286782345082884</v>
+        <v>0.08920282749406994</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.860374292454821</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05596061601055879</v>
       </c>
       <c r="M11">
-        <v>34.73404926346666</v>
+        <v>1.072993647856151</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1740328752878639</v>
+        <v>0.01622309024483926</v>
       </c>
       <c r="D12">
-        <v>0.7591234188939495</v>
+        <v>0.0001042673687738915</v>
       </c>
       <c r="E12">
-        <v>0.858058779324395</v>
+        <v>0.02656565025347035</v>
       </c>
       <c r="F12">
-        <v>3.133245745147278</v>
+        <v>3.986805245542968</v>
       </c>
       <c r="G12">
-        <v>0.0006304144004411006</v>
+        <v>0.0008186161342218492</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.946631486375608</v>
       </c>
       <c r="J12">
-        <v>1.286782345082884</v>
+        <v>0.08951687592310975</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>6.017212052308423</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05601551441946029</v>
       </c>
       <c r="M12">
-        <v>34.73404926346666</v>
+        <v>1.10040524238272</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1740328752878639</v>
+        <v>0.01614365617582436</v>
       </c>
       <c r="D13">
-        <v>0.7591234188939495</v>
+        <v>0.0001060888678554583</v>
       </c>
       <c r="E13">
-        <v>0.858058779324395</v>
+        <v>0.02652426013052711</v>
       </c>
       <c r="F13">
-        <v>3.133245745147278</v>
+        <v>3.973444313280083</v>
       </c>
       <c r="G13">
-        <v>0.0006304144004411006</v>
+        <v>0.0008191921149671468</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.936740113114283</v>
       </c>
       <c r="J13">
-        <v>1.286782345082884</v>
+        <v>0.08944811534078312</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.983344046007403</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05600324796816736</v>
       </c>
       <c r="M13">
-        <v>34.73404926346666</v>
+        <v>1.094485538633279</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1740328752878639</v>
+        <v>0.01588494422437137</v>
       </c>
       <c r="D14">
-        <v>0.7591234188939495</v>
+        <v>0.0001132354918476075</v>
       </c>
       <c r="E14">
-        <v>0.858058779324395</v>
+        <v>0.0263900796440808</v>
       </c>
       <c r="F14">
-        <v>3.133245745147278</v>
+        <v>3.930182314541042</v>
       </c>
       <c r="G14">
-        <v>0.0006304144004411006</v>
+        <v>0.0008210717789218068</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.904714309817038</v>
       </c>
       <c r="J14">
-        <v>1.286782345082884</v>
+        <v>0.08922816115172694</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.87323724129044</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05596493386081036</v>
       </c>
       <c r="M14">
-        <v>34.73404926346666</v>
+        <v>1.07524162715076</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1740328752878639</v>
+        <v>0.01572673019913751</v>
       </c>
       <c r="D15">
-        <v>0.7591234188939495</v>
+        <v>0.0001185165327308724</v>
       </c>
       <c r="E15">
-        <v>0.858058779324395</v>
+        <v>0.026308499112071</v>
       </c>
       <c r="F15">
-        <v>3.133245745147278</v>
+        <v>3.90391779893352</v>
       </c>
       <c r="G15">
-        <v>0.0006304144004411006</v>
+        <v>0.0008222241655810059</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.885272800055489</v>
       </c>
       <c r="J15">
-        <v>1.286782345082884</v>
+        <v>0.08909668524188064</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.806052445873661</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05594275121478276</v>
       </c>
       <c r="M15">
-        <v>34.73404926346666</v>
+        <v>1.063500488161729</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1740328752878639</v>
+        <v>0.01482371042746777</v>
       </c>
       <c r="D16">
-        <v>0.7591234188939495</v>
+        <v>0.0001617047597430865</v>
       </c>
       <c r="E16">
-        <v>0.858058779324395</v>
+        <v>0.02585004199919716</v>
       </c>
       <c r="F16">
-        <v>3.133245745147278</v>
+        <v>3.756836824896027</v>
       </c>
       <c r="G16">
-        <v>0.0006304144004411006</v>
+        <v>0.0008288465470349495</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.776421952966189</v>
       </c>
       <c r="J16">
-        <v>1.286782345082884</v>
+        <v>0.08839137296117983</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.424786226596439</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05583484753873691</v>
       </c>
       <c r="M16">
-        <v>34.73404926346666</v>
+        <v>0.9968880960623778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1740328752878639</v>
+        <v>0.01427272002228008</v>
       </c>
       <c r="D17">
-        <v>0.7591234188939495</v>
+        <v>0.000198787492421415</v>
       </c>
       <c r="E17">
-        <v>0.858058779324395</v>
+        <v>0.02557657208703468</v>
       </c>
       <c r="F17">
-        <v>3.133245745147278</v>
+        <v>3.669495288279791</v>
       </c>
       <c r="G17">
-        <v>0.0006304144004411006</v>
+        <v>0.0008329283956508911</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.711800807020666</v>
       </c>
       <c r="J17">
-        <v>1.286782345082884</v>
+        <v>0.08799983778858689</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.193999422197464</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05578528805401817</v>
       </c>
       <c r="M17">
-        <v>34.73404926346666</v>
+        <v>0.9565826950496685</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1740328752878639</v>
+        <v>0.01395680238237418</v>
       </c>
       <c r="D18">
-        <v>0.7591234188939495</v>
+        <v>0.0002236559638961744</v>
       </c>
       <c r="E18">
-        <v>0.858058779324395</v>
+        <v>0.02542202678983685</v>
       </c>
       <c r="F18">
-        <v>3.133245745147278</v>
+        <v>3.620254730195541</v>
       </c>
       <c r="G18">
-        <v>0.0006304144004411006</v>
+        <v>0.0008352842577168383</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.675375639260764</v>
       </c>
       <c r="J18">
-        <v>1.286782345082884</v>
+        <v>0.08778908436449129</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.062311534711398</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05576270333480338</v>
       </c>
       <c r="M18">
-        <v>34.73404926346666</v>
+        <v>0.9335905289258619</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1740328752878639</v>
+        <v>0.01385000062578001</v>
       </c>
       <c r="D19">
-        <v>0.7591234188939495</v>
+        <v>0.0002326525428577586</v>
       </c>
       <c r="E19">
-        <v>0.858058779324395</v>
+        <v>0.02537016221211452</v>
       </c>
       <c r="F19">
-        <v>3.133245745147278</v>
+        <v>3.60374788054142</v>
       </c>
       <c r="G19">
-        <v>0.0006304144004411006</v>
+        <v>0.0008360833941814758</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.663165931839629</v>
       </c>
       <c r="J19">
-        <v>1.286782345082884</v>
+        <v>0.08772014709498777</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.017897499071069</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05575605592367339</v>
       </c>
       <c r="M19">
-        <v>34.73404926346666</v>
+        <v>0.925837123610485</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1740328752878639</v>
+        <v>0.01433126853235933</v>
       </c>
       <c r="D20">
-        <v>0.7591234188939495</v>
+        <v>0.0001944660756598715</v>
       </c>
       <c r="E20">
-        <v>0.858058779324395</v>
+        <v>0.0256053966634564</v>
       </c>
       <c r="F20">
-        <v>3.133245745147278</v>
+        <v>3.678688442473543</v>
       </c>
       <c r="G20">
-        <v>0.0006304144004411006</v>
+        <v>0.0008324930608598624</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.718601855991523</v>
       </c>
       <c r="J20">
-        <v>1.286782345082884</v>
+        <v>0.08804000743407059</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>5.218456023889416</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05578994678211302</v>
       </c>
       <c r="M20">
-        <v>34.73404926346666</v>
+        <v>0.9608532371382594</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1740328752878639</v>
+        <v>0.01596088050809286</v>
       </c>
       <c r="D21">
-        <v>0.7591234188939495</v>
+        <v>0.0001109457654029367</v>
       </c>
       <c r="E21">
-        <v>0.858058779324395</v>
+        <v>0.0264293641113742</v>
       </c>
       <c r="F21">
-        <v>3.133245745147278</v>
+        <v>3.942840087375799</v>
       </c>
       <c r="G21">
-        <v>0.0006304144004411006</v>
+        <v>0.0008205194659468384</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.914084240619758</v>
       </c>
       <c r="J21">
-        <v>1.286782345082884</v>
+        <v>0.08929208497776386</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.905523792255678</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05597591845954497</v>
       </c>
       <c r="M21">
-        <v>34.73404926346666</v>
+        <v>1.080884283990308</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1740328752878639</v>
+        <v>0.01703704311866616</v>
       </c>
       <c r="D22">
-        <v>0.7591234188939495</v>
+        <v>9.582458958057316E-05</v>
       </c>
       <c r="E22">
-        <v>0.858058779324395</v>
+        <v>0.02699481997848885</v>
       </c>
       <c r="F22">
-        <v>3.133245745147278</v>
+        <v>4.1258033435534</v>
       </c>
       <c r="G22">
-        <v>0.0006304144004411006</v>
+        <v>0.000812743310963041</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.049550924899236</v>
       </c>
       <c r="J22">
-        <v>1.286782345082884</v>
+        <v>0.09025409613362001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.365904318822231</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05615448123472433</v>
       </c>
       <c r="M22">
-        <v>34.73404926346666</v>
+        <v>1.161362837531598</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1740328752878639</v>
+        <v>0.01646153772922077</v>
       </c>
       <c r="D23">
-        <v>0.7591234188939495</v>
+        <v>9.985817322166746E-05</v>
       </c>
       <c r="E23">
-        <v>0.858058779324395</v>
+        <v>0.02669042990258141</v>
       </c>
       <c r="F23">
-        <v>3.133245745147278</v>
+        <v>4.02713129585905</v>
       </c>
       <c r="G23">
-        <v>0.0006304144004411006</v>
+        <v>0.0008168902734907954</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.976487383016917</v>
       </c>
       <c r="J23">
-        <v>1.286782345082884</v>
+        <v>0.08972671417473777</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>6.119050324604018</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05605373670343639</v>
       </c>
       <c r="M23">
-        <v>34.73404926346666</v>
+        <v>1.11820644507894</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1740328752878639</v>
+        <v>0.01430479611414626</v>
       </c>
       <c r="D24">
-        <v>0.7591234188939495</v>
+        <v>0.00019640881623606</v>
       </c>
       <c r="E24">
-        <v>0.858058779324395</v>
+        <v>0.02559235676283933</v>
       </c>
       <c r="F24">
-        <v>3.133245745147278</v>
+        <v>3.674529201367477</v>
       </c>
       <c r="G24">
-        <v>0.0006304144004411006</v>
+        <v>0.0008326898469530457</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.715524850716136</v>
       </c>
       <c r="J24">
-        <v>1.286782345082884</v>
+        <v>0.08802180221391964</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.207396117141684</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05578782221547485</v>
       </c>
       <c r="M24">
-        <v>34.73404926346666</v>
+        <v>0.9589219681105803</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1740328752878639</v>
+        <v>0.012015686120467</v>
       </c>
       <c r="D25">
-        <v>0.7591234188939495</v>
+        <v>0.0004328177945454037</v>
       </c>
       <c r="E25">
-        <v>0.858058779324395</v>
+        <v>0.02451188166218365</v>
       </c>
       <c r="F25">
-        <v>3.133245745147278</v>
+        <v>3.331645451343803</v>
       </c>
       <c r="G25">
-        <v>0.0006304144004411006</v>
+        <v>0.0008500514682605938</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.461982185671957</v>
       </c>
       <c r="J25">
-        <v>1.286782345082884</v>
+        <v>0.08672865928598839</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>4.263514457359577</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05572548688411416</v>
       </c>
       <c r="M25">
-        <v>34.73404926346666</v>
+        <v>0.7942448388986136</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.268410678092337</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01035260797889492</v>
+        <v>0.03146663659726912</v>
       </c>
       <c r="D2">
-        <v>0.0006872429547881698</v>
+        <v>0.001669470619939606</v>
       </c>
       <c r="E2">
-        <v>0.02379451626699414</v>
+        <v>0.0736725748946192</v>
       </c>
       <c r="F2">
-        <v>3.104850191676576</v>
+        <v>5.194316557937825</v>
       </c>
       <c r="G2">
-        <v>0.0008632139313411025</v>
+        <v>0.002688850182370782</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.294440270566469</v>
+        <v>3.8116939888384</v>
       </c>
       <c r="J2">
-        <v>0.08617851552636324</v>
+        <v>0.2115839388477134</v>
       </c>
       <c r="K2">
-        <v>3.593671500946698</v>
+        <v>3.36665676196759</v>
       </c>
       <c r="L2">
-        <v>0.0558533442229141</v>
+        <v>0.1578551192982047</v>
       </c>
       <c r="M2">
-        <v>0.6776115963362344</v>
+        <v>0.8098292864501744</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009235735655259703</v>
+        <v>0.03130445335109755</v>
       </c>
       <c r="D3">
-        <v>0.0008965218386665086</v>
+        <v>0.001624289006005863</v>
       </c>
       <c r="E3">
-        <v>0.02335241206175542</v>
+        <v>0.07386673686844158</v>
       </c>
       <c r="F3">
-        <v>2.964400110074848</v>
+        <v>5.18822385644296</v>
       </c>
       <c r="G3">
-        <v>0.0008724153373785105</v>
+        <v>0.002694556291051409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.190770365515988</v>
+        <v>3.807078366315238</v>
       </c>
       <c r="J3">
-        <v>0.08602793422550192</v>
+        <v>0.2124551143171161</v>
       </c>
       <c r="K3">
-        <v>3.151682312711273</v>
+        <v>3.273964082163332</v>
       </c>
       <c r="L3">
-        <v>0.05604020473185578</v>
+        <v>0.1584840892625969</v>
       </c>
       <c r="M3">
-        <v>0.6008092972191221</v>
+        <v>0.7953519620987777</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008554031647413751</v>
+        <v>0.03121462966359445</v>
       </c>
       <c r="D4">
-        <v>0.001039553497132362</v>
+        <v>0.001596388099426971</v>
       </c>
       <c r="E4">
-        <v>0.02310134929057561</v>
+        <v>0.07400371204582878</v>
       </c>
       <c r="F4">
-        <v>2.883902308047539</v>
+        <v>5.186769231399722</v>
       </c>
       <c r="G4">
-        <v>0.0008782166305870208</v>
+        <v>0.002698243770304498</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.131391315581439</v>
+        <v>3.805930712934</v>
       </c>
       <c r="J4">
-        <v>0.08603686309114167</v>
+        <v>0.2130493111554586</v>
       </c>
       <c r="K4">
-        <v>2.885140087853642</v>
+        <v>3.218977727245317</v>
       </c>
       <c r="L4">
-        <v>0.05620200225269834</v>
+        <v>0.1589051089008677</v>
       </c>
       <c r="M4">
-        <v>0.5545743938621044</v>
+        <v>0.7868909124732042</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008277135698570248</v>
+        <v>0.03118050289537777</v>
       </c>
       <c r="D5">
-        <v>0.0011010167575074</v>
+        <v>0.001584970296238719</v>
       </c>
       <c r="E5">
-        <v>0.02300398908281931</v>
+        <v>0.07406400968623128</v>
       </c>
       <c r="F5">
-        <v>2.852434366863903</v>
+        <v>5.186749972224661</v>
       </c>
       <c r="G5">
-        <v>0.000880620569574679</v>
+        <v>0.002699792851489979</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.108188322039297</v>
+        <v>3.805886006139588</v>
       </c>
       <c r="J5">
-        <v>0.08606488024371828</v>
+        <v>0.2133063646979139</v>
       </c>
       <c r="K5">
-        <v>2.777597407755508</v>
+        <v>3.197055042676453</v>
       </c>
       <c r="L5">
-        <v>0.05627945109835686</v>
+        <v>0.1590854509955761</v>
       </c>
       <c r="M5">
-        <v>0.5359406708639725</v>
+        <v>0.7835507089212541</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008231208890055797</v>
+        <v>0.03117498648161288</v>
       </c>
       <c r="D6">
-        <v>0.00111140161399681</v>
+        <v>0.001583071255377266</v>
       </c>
       <c r="E6">
-        <v>0.02298811657263578</v>
+        <v>0.07407429299258972</v>
       </c>
       <c r="F6">
-        <v>2.847286822753873</v>
+        <v>5.186781372248248</v>
       </c>
       <c r="G6">
-        <v>0.0008810221981722022</v>
+        <v>0.002700052882895728</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.104393315525414</v>
+        <v>3.80590409770565</v>
       </c>
       <c r="J6">
-        <v>0.08607097393770502</v>
+        <v>0.2133499491086397</v>
       </c>
       <c r="K6">
-        <v>2.759801064531302</v>
+        <v>3.193444075325857</v>
       </c>
       <c r="L6">
-        <v>0.05629299804109955</v>
+        <v>0.1591159269842546</v>
       </c>
       <c r="M6">
-        <v>0.5328584043957036</v>
+        <v>0.7830025811360244</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008550293811900644</v>
+        <v>0.03121415935569516</v>
       </c>
       <c r="D7">
-        <v>0.001040370141651925</v>
+        <v>0.001596234319836132</v>
       </c>
       <c r="E7">
-        <v>0.02310001643753257</v>
+        <v>0.07400450708680051</v>
       </c>
       <c r="F7">
-        <v>2.883472648595813</v>
+        <v>5.186766651426936</v>
       </c>
       <c r="G7">
-        <v>0.0008782488873442886</v>
+        <v>0.00269826447375987</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.131074467004098</v>
+        <v>3.80592839886144</v>
       </c>
       <c r="J7">
-        <v>0.08603714364181414</v>
+        <v>0.2130527174799788</v>
       </c>
       <c r="K7">
-        <v>2.883685553894566</v>
+        <v>3.218680107618212</v>
       </c>
       <c r="L7">
-        <v>0.05620300053421801</v>
+        <v>0.1589075055153124</v>
       </c>
       <c r="M7">
-        <v>0.5543222841286166</v>
+        <v>0.7868454289413975</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.009966590625683835</v>
+        <v>0.03140870452699218</v>
       </c>
       <c r="D8">
-        <v>0.0007560804121606868</v>
+        <v>0.001653920183012136</v>
       </c>
       <c r="E8">
-        <v>0.0236377343008618</v>
+        <v>0.0737358440964897</v>
       </c>
       <c r="F8">
-        <v>3.055164251875226</v>
+        <v>5.191740410449739</v>
       </c>
       <c r="G8">
-        <v>0.0008663562075827438</v>
+        <v>0.002690779575287257</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.257757120200111</v>
+        <v>3.809751859127005</v>
       </c>
       <c r="J8">
-        <v>0.08610485161229775</v>
+        <v>0.2118720165537376</v>
       </c>
       <c r="K8">
-        <v>3.440179475622415</v>
+        <v>3.334296291611054</v>
       </c>
       <c r="L8">
-        <v>0.05590780467875867</v>
+        <v>0.158064768231867</v>
       </c>
       <c r="M8">
-        <v>0.6509233724081724</v>
+        <v>0.8047487044809642</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01278272841105377</v>
+        <v>0.03186665354413165</v>
       </c>
       <c r="D9">
-        <v>0.0003387114385469125</v>
+        <v>0.001766151707204955</v>
       </c>
       <c r="E9">
-        <v>0.02486300915606776</v>
+        <v>0.0733493361327433</v>
       </c>
       <c r="F9">
-        <v>3.442757882203779</v>
+        <v>5.219704125788496</v>
       </c>
       <c r="G9">
-        <v>0.0008441507175876498</v>
+        <v>0.002677553636641142</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.544115083037468</v>
+        <v>3.830683192362045</v>
       </c>
       <c r="J9">
-        <v>0.08709767112803135</v>
+        <v>0.2100269850935028</v>
       </c>
       <c r="K9">
-        <v>4.577018301920191</v>
+        <v>3.576328255733472</v>
       </c>
       <c r="L9">
-        <v>0.05571830679964052</v>
+        <v>0.1566878712986934</v>
       </c>
       <c r="M9">
-        <v>0.8489061850008781</v>
+        <v>0.843252731008441</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01488672438155803</v>
+        <v>0.03224848783876411</v>
       </c>
       <c r="D10">
-        <v>0.0001579777563835982</v>
+        <v>0.001848604423929423</v>
       </c>
       <c r="E10">
-        <v>0.02588162698552132</v>
+        <v>0.07315019237385201</v>
       </c>
       <c r="F10">
-        <v>3.766942691555272</v>
+        <v>5.251455250617141</v>
       </c>
       <c r="G10">
-        <v>0.0008283818032713838</v>
+        <v>0.002668711462914722</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.78389984737278</v>
+        <v>3.854330830466878</v>
       </c>
       <c r="J10">
-        <v>0.08843805541637906</v>
+        <v>0.2089580575545824</v>
       </c>
       <c r="K10">
-        <v>5.45126970744883</v>
+        <v>3.763532586164104</v>
       </c>
       <c r="L10">
-        <v>0.05584131857800045</v>
+        <v>0.1558434888105502</v>
       </c>
       <c r="M10">
-        <v>1.001514094304312</v>
+        <v>0.8736155429424528</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01585467398679441</v>
+        <v>0.03243179989079792</v>
       </c>
       <c r="D11">
-        <v>0.0001141925900978169</v>
+        <v>0.001886236187263357</v>
       </c>
       <c r="E11">
-        <v>0.02637444307628911</v>
+        <v>0.07307786555939977</v>
       </c>
       <c r="F11">
-        <v>3.925145956235866</v>
+        <v>5.268356383008154</v>
       </c>
       <c r="G11">
-        <v>0.0008212920867573467</v>
+        <v>0.002664876729979016</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.900986211727897</v>
+        <v>3.866902209091521</v>
       </c>
       <c r="J11">
-        <v>0.08920282749406994</v>
+        <v>0.2085340011260399</v>
       </c>
       <c r="K11">
-        <v>5.860374292454821</v>
+        <v>3.850747761215075</v>
       </c>
       <c r="L11">
-        <v>0.05596061601055879</v>
+        <v>0.1554954915851923</v>
       </c>
       <c r="M11">
-        <v>1.072993647856151</v>
+        <v>0.8878799968853315</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01622309024483926</v>
+        <v>0.03250257664393885</v>
       </c>
       <c r="D12">
-        <v>0.0001042673687738915</v>
+        <v>0.001900514542377163</v>
       </c>
       <c r="E12">
-        <v>0.02656565025347035</v>
+        <v>0.07305309125679038</v>
       </c>
       <c r="F12">
-        <v>3.986805245542968</v>
+        <v>5.275111548642229</v>
       </c>
       <c r="G12">
-        <v>0.0008186161342218492</v>
+        <v>0.002663451428412125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.946631486375608</v>
+        <v>3.871924864452652</v>
       </c>
       <c r="J12">
-        <v>0.08951687592310975</v>
+        <v>0.2083823662566111</v>
       </c>
       <c r="K12">
-        <v>6.017212052308423</v>
+        <v>3.88407005395112</v>
       </c>
       <c r="L12">
-        <v>0.05601551441946029</v>
+        <v>0.1553688936564015</v>
       </c>
       <c r="M12">
-        <v>1.10040524238272</v>
+        <v>0.8933466395115204</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01614365617582436</v>
+        <v>0.03248727344275082</v>
       </c>
       <c r="D13">
-        <v>0.0001060888678554583</v>
+        <v>0.001897438030485255</v>
       </c>
       <c r="E13">
-        <v>0.02652426013052711</v>
+        <v>0.0730583107663243</v>
       </c>
       <c r="F13">
-        <v>3.973444313280083</v>
+        <v>5.273640883488241</v>
       </c>
       <c r="G13">
-        <v>0.0008191921149671468</v>
+        <v>0.002663757201709298</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.936740113114283</v>
+        <v>3.87083146576208</v>
       </c>
       <c r="J13">
-        <v>0.08944811534078312</v>
+        <v>0.2084146256355304</v>
       </c>
       <c r="K13">
-        <v>5.983344046007403</v>
+        <v>3.876880340942876</v>
       </c>
       <c r="L13">
-        <v>0.05600324796816736</v>
+        <v>0.1553959285524762</v>
       </c>
       <c r="M13">
-        <v>1.094485538633279</v>
+        <v>0.8921664095347097</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01588494422437137</v>
+        <v>0.03243759559606474</v>
       </c>
       <c r="D14">
-        <v>0.0001132354918476075</v>
+        <v>0.001887410254513</v>
       </c>
       <c r="E14">
-        <v>0.0263900796440808</v>
+        <v>0.07307577503724616</v>
       </c>
       <c r="F14">
-        <v>3.930182314541042</v>
+        <v>5.268905008511865</v>
       </c>
       <c r="G14">
-        <v>0.0008210717789218068</v>
+        <v>0.002664758932521317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.904714309817038</v>
+        <v>3.867310164633295</v>
       </c>
       <c r="J14">
-        <v>0.08922816115172694</v>
+        <v>0.2085213467329332</v>
       </c>
       <c r="K14">
-        <v>5.87323724129044</v>
+        <v>3.853483276148495</v>
       </c>
       <c r="L14">
-        <v>0.05596493386081036</v>
+        <v>0.1554849725318022</v>
       </c>
       <c r="M14">
-        <v>1.07524162715076</v>
+        <v>0.8883284382344954</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01572673019913751</v>
+        <v>0.03240734300679549</v>
       </c>
       <c r="D15">
-        <v>0.0001185165327308724</v>
+        <v>0.001881271911764237</v>
       </c>
       <c r="E15">
-        <v>0.026308499112071</v>
+        <v>0.07308681250817273</v>
       </c>
       <c r="F15">
-        <v>3.90391779893352</v>
+        <v>5.26605044034207</v>
       </c>
       <c r="G15">
-        <v>0.0008222241655810059</v>
+        <v>0.002665376011129999</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.885272800055489</v>
+        <v>3.865187444250623</v>
       </c>
       <c r="J15">
-        <v>0.08909668524188064</v>
+        <v>0.2085878815740827</v>
       </c>
       <c r="K15">
-        <v>5.806052445873661</v>
+        <v>3.839190429865369</v>
       </c>
       <c r="L15">
-        <v>0.05594275121478276</v>
+        <v>0.1555401889013517</v>
       </c>
       <c r="M15">
-        <v>1.063500488161729</v>
+        <v>0.8859860346430395</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01482371042746777</v>
+        <v>0.03223669952868491</v>
       </c>
       <c r="D16">
-        <v>0.0001617047597430865</v>
+        <v>0.001846148454969221</v>
       </c>
       <c r="E16">
-        <v>0.02585004199919716</v>
+        <v>0.07315528559087348</v>
       </c>
       <c r="F16">
-        <v>3.756836824896027</v>
+        <v>5.250400315990078</v>
       </c>
       <c r="G16">
-        <v>0.0008288465470349495</v>
+        <v>0.002668965834400135</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.776421952966189</v>
+        <v>3.853545873675188</v>
       </c>
       <c r="J16">
-        <v>0.08839137296117983</v>
+        <v>0.2089870224417041</v>
       </c>
       <c r="K16">
-        <v>5.424786226596439</v>
+        <v>3.757874244735206</v>
       </c>
       <c r="L16">
-        <v>0.05583484753873691</v>
+        <v>0.1558669569372562</v>
       </c>
       <c r="M16">
-        <v>0.9968880960623778</v>
+        <v>0.8726924250517385</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01427272002228008</v>
+        <v>0.03213446180650692</v>
       </c>
       <c r="D17">
-        <v>0.000198787492421415</v>
+        <v>0.001824640189616478</v>
       </c>
       <c r="E17">
-        <v>0.02557657208703468</v>
+        <v>0.07320196093148468</v>
       </c>
       <c r="F17">
-        <v>3.669495288279791</v>
+        <v>5.241430073389466</v>
       </c>
       <c r="G17">
-        <v>0.0008329283956508911</v>
+        <v>0.002671216020304615</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.711800807020666</v>
+        <v>3.846869665688445</v>
       </c>
       <c r="J17">
-        <v>0.08799983778858689</v>
+        <v>0.2092478151565409</v>
       </c>
       <c r="K17">
-        <v>5.193999422197464</v>
+        <v>3.708515920783555</v>
       </c>
       <c r="L17">
-        <v>0.05578528805401817</v>
+        <v>0.1560766599481376</v>
       </c>
       <c r="M17">
-        <v>0.9565826950496685</v>
+        <v>0.8646530350733741</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01395680238237418</v>
+        <v>0.03207656354898702</v>
       </c>
       <c r="D18">
-        <v>0.0002236559638961744</v>
+        <v>0.001812280205089056</v>
       </c>
       <c r="E18">
-        <v>0.02542202678983685</v>
+        <v>0.07323052722605539</v>
       </c>
       <c r="F18">
-        <v>3.620254730195541</v>
+        <v>5.236501824865456</v>
       </c>
       <c r="G18">
-        <v>0.0008352842577168383</v>
+        <v>0.002672527936042548</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.675375639260764</v>
+        <v>3.843200346144386</v>
       </c>
       <c r="J18">
-        <v>0.08778908436449129</v>
+        <v>0.2094036710781921</v>
       </c>
       <c r="K18">
-        <v>5.062311534711398</v>
+        <v>3.680319722089621</v>
       </c>
       <c r="L18">
-        <v>0.05576270333480338</v>
+        <v>0.1562006757734267</v>
       </c>
       <c r="M18">
-        <v>0.9335905289258619</v>
+        <v>0.8600715604658546</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01385000062578001</v>
+        <v>0.03205711650626242</v>
       </c>
       <c r="D19">
-        <v>0.0002326525428577586</v>
+        <v>0.001808096910019596</v>
       </c>
       <c r="E19">
-        <v>0.02537016221211452</v>
+        <v>0.07324049504553187</v>
       </c>
       <c r="F19">
-        <v>3.60374788054142</v>
+        <v>5.234872861401016</v>
       </c>
       <c r="G19">
-        <v>0.0008360833941814758</v>
+        <v>0.002672975167326635</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.663165931839629</v>
+        <v>3.841987248901589</v>
       </c>
       <c r="J19">
-        <v>0.08772014709498777</v>
+        <v>0.2094574467585453</v>
       </c>
       <c r="K19">
-        <v>5.017897499071069</v>
+        <v>3.670806182960291</v>
       </c>
       <c r="L19">
-        <v>0.05575605592367339</v>
+        <v>0.1562432497713644</v>
       </c>
       <c r="M19">
-        <v>0.925837123610485</v>
+        <v>0.8585276644121222</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01433126853235933</v>
+        <v>0.03214525156231929</v>
       </c>
       <c r="D20">
-        <v>0.0001944660756598715</v>
+        <v>0.001826928570443531</v>
       </c>
       <c r="E20">
-        <v>0.0256053966634564</v>
+        <v>0.07319681435001435</v>
       </c>
       <c r="F20">
-        <v>3.678688442473543</v>
+        <v>5.242361030663972</v>
       </c>
       <c r="G20">
-        <v>0.0008324930608598624</v>
+        <v>0.002670974656591356</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.718601855991523</v>
+        <v>3.847562687510376</v>
       </c>
       <c r="J20">
-        <v>0.08804000743407059</v>
+        <v>0.2092194473646032</v>
       </c>
       <c r="K20">
-        <v>5.218456023889416</v>
+        <v>3.713750180136117</v>
       </c>
       <c r="L20">
-        <v>0.05578994678211302</v>
+        <v>0.1560539848880467</v>
       </c>
       <c r="M20">
-        <v>0.9608532371382594</v>
+        <v>0.8655044362988988</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01596088050809286</v>
+        <v>0.03245215043406446</v>
       </c>
       <c r="D21">
-        <v>0.0001109457654029367</v>
+        <v>0.001890354811272754</v>
       </c>
       <c r="E21">
-        <v>0.0264293641113742</v>
+        <v>0.07307057450224086</v>
       </c>
       <c r="F21">
-        <v>3.942840087375799</v>
+        <v>5.270286399506318</v>
       </c>
       <c r="G21">
-        <v>0.0008205194659468384</v>
+        <v>0.002664463972953885</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.914084240619758</v>
+        <v>3.868337331068957</v>
       </c>
       <c r="J21">
-        <v>0.08929208497776386</v>
+        <v>0.2084897573536786</v>
       </c>
       <c r="K21">
-        <v>5.905523792255678</v>
+        <v>3.860347530696743</v>
       </c>
       <c r="L21">
-        <v>0.05597591845954497</v>
+        <v>0.1554586776419598</v>
       </c>
       <c r="M21">
-        <v>1.080884283990308</v>
+        <v>0.8894539794531937</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01703704311866616</v>
+        <v>0.03266064648067157</v>
       </c>
       <c r="D22">
-        <v>9.582458958057316E-05</v>
+        <v>0.001931975875235636</v>
       </c>
       <c r="E22">
-        <v>0.02699481997848885</v>
+        <v>0.07300330205383432</v>
       </c>
       <c r="F22">
-        <v>4.1258033435534</v>
+        <v>5.290607689057794</v>
       </c>
       <c r="G22">
-        <v>0.000812743310963041</v>
+        <v>0.002660365174176116</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.049550924899236</v>
+        <v>3.883443371576121</v>
       </c>
       <c r="J22">
-        <v>0.09025409613362001</v>
+        <v>0.2080650082581386</v>
       </c>
       <c r="K22">
-        <v>6.365904318822231</v>
+        <v>3.957881694432103</v>
       </c>
       <c r="L22">
-        <v>0.05615448123472433</v>
+        <v>0.1550998035284756</v>
       </c>
       <c r="M22">
-        <v>1.161362837531598</v>
+        <v>0.9054852740633237</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01646153772922077</v>
+        <v>0.03254865069855839</v>
       </c>
       <c r="D23">
-        <v>9.985817322166746E-05</v>
+        <v>0.001909743047824541</v>
       </c>
       <c r="E23">
-        <v>0.02669042990258141</v>
+        <v>0.07303781680835186</v>
       </c>
       <c r="F23">
-        <v>4.02713129585905</v>
+        <v>5.279571819676363</v>
       </c>
       <c r="G23">
-        <v>0.0008168902734907954</v>
+        <v>0.002662538527412963</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.976487383016917</v>
+        <v>3.87524069079322</v>
       </c>
       <c r="J23">
-        <v>0.08972671417473777</v>
+        <v>0.2082869330325856</v>
       </c>
       <c r="K23">
-        <v>6.119050324604018</v>
+        <v>3.905667987429467</v>
       </c>
       <c r="L23">
-        <v>0.05605373670343639</v>
+        <v>0.1552885827467989</v>
       </c>
       <c r="M23">
-        <v>1.11820644507894</v>
+        <v>0.8968944098323703</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01430479611414626</v>
+        <v>0.03214037077233556</v>
       </c>
       <c r="D24">
-        <v>0.00019640881623606</v>
+        <v>0.001825893977671189</v>
       </c>
       <c r="E24">
-        <v>0.02559235676283933</v>
+        <v>0.07319913572368542</v>
       </c>
       <c r="F24">
-        <v>3.674529201367477</v>
+        <v>5.241939432150161</v>
       </c>
       <c r="G24">
-        <v>0.0008326898469530457</v>
+        <v>0.002671083720469314</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.715524850716136</v>
+        <v>3.847248846290654</v>
       </c>
       <c r="J24">
-        <v>0.08802180221391964</v>
+        <v>0.2092322539953209</v>
       </c>
       <c r="K24">
-        <v>5.207396117141684</v>
+        <v>3.711383209101996</v>
       </c>
       <c r="L24">
-        <v>0.05578782221547485</v>
+        <v>0.1560642255212663</v>
       </c>
       <c r="M24">
-        <v>0.9589219681105803</v>
+        <v>0.8651193917229918</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.012015686120467</v>
+        <v>0.031734710320098</v>
       </c>
       <c r="D25">
-        <v>0.0004328177945454037</v>
+        <v>0.001735830989555431</v>
       </c>
       <c r="E25">
-        <v>0.02451188166218365</v>
+        <v>0.07343894872422396</v>
       </c>
       <c r="F25">
-        <v>3.331645451343803</v>
+        <v>5.210178911640526</v>
       </c>
       <c r="G25">
-        <v>0.0008500514682605938</v>
+        <v>0.002680977222810579</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.461982185671957</v>
+        <v>3.823574345408701</v>
       </c>
       <c r="J25">
-        <v>0.08672865928598839</v>
+        <v>0.2104757757534941</v>
       </c>
       <c r="K25">
-        <v>4.263514457359577</v>
+        <v>3.509208239306531</v>
       </c>
       <c r="L25">
-        <v>0.05572548688411416</v>
+        <v>0.1570309310358873</v>
       </c>
       <c r="M25">
-        <v>0.7942448388986136</v>
+        <v>0.832472483258293</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03146663659726912</v>
+        <v>0.01035260797890558</v>
       </c>
       <c r="D2">
-        <v>0.001669470619939606</v>
+        <v>0.0006872429547801762</v>
       </c>
       <c r="E2">
-        <v>0.0736725748946192</v>
+        <v>0.02379451626701901</v>
       </c>
       <c r="F2">
-        <v>5.194316557937825</v>
+        <v>3.104850191676519</v>
       </c>
       <c r="G2">
-        <v>0.002688850182370782</v>
+        <v>0.0008632139312797742</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.8116939888384</v>
+        <v>2.294440270566454</v>
       </c>
       <c r="J2">
-        <v>0.2115839388477134</v>
+        <v>0.08617851552634193</v>
       </c>
       <c r="K2">
-        <v>3.36665676196759</v>
+        <v>3.593671500946812</v>
       </c>
       <c r="L2">
-        <v>0.1578551192982047</v>
+        <v>0.05585334422295496</v>
       </c>
       <c r="M2">
-        <v>0.8098292864501744</v>
+        <v>0.6776115963362273</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03130445335109755</v>
+        <v>0.009235735655483523</v>
       </c>
       <c r="D3">
-        <v>0.001624289006005863</v>
+        <v>0.0008965218385634799</v>
       </c>
       <c r="E3">
-        <v>0.07386673686844158</v>
+        <v>0.02335241206173233</v>
       </c>
       <c r="F3">
-        <v>5.18822385644296</v>
+        <v>2.964400110074891</v>
       </c>
       <c r="G3">
-        <v>0.002694556291051409</v>
+        <v>0.0008724153372713397</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.807078366315238</v>
+        <v>2.190770365516002</v>
       </c>
       <c r="J3">
-        <v>0.2124551143171161</v>
+        <v>0.08602793422551613</v>
       </c>
       <c r="K3">
-        <v>3.273964082163332</v>
+        <v>3.151682312711387</v>
       </c>
       <c r="L3">
-        <v>0.1584840892625969</v>
+        <v>0.05604020473186111</v>
       </c>
       <c r="M3">
-        <v>0.7953519620987777</v>
+        <v>0.600809297219115</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03121462966359445</v>
+        <v>0.008554031647186378</v>
       </c>
       <c r="D4">
-        <v>0.001596388099426971</v>
+        <v>0.001039553497150347</v>
       </c>
       <c r="E4">
-        <v>0.07400371204582878</v>
+        <v>0.02310134929053653</v>
       </c>
       <c r="F4">
-        <v>5.186769231399722</v>
+        <v>2.88390230804751</v>
       </c>
       <c r="G4">
-        <v>0.002698243770304498</v>
+        <v>0.0008782166306514051</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.805930712934</v>
+        <v>2.131391315581382</v>
       </c>
       <c r="J4">
-        <v>0.2130493111554586</v>
+        <v>0.08603686309112035</v>
       </c>
       <c r="K4">
-        <v>3.218977727245317</v>
+        <v>2.885140087853358</v>
       </c>
       <c r="L4">
-        <v>0.1589051089008677</v>
+        <v>0.05620200225260952</v>
       </c>
       <c r="M4">
-        <v>0.7868909124732042</v>
+        <v>0.5545743938620831</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03118050289537777</v>
+        <v>0.008277135698797622</v>
       </c>
       <c r="D5">
-        <v>0.001584970296238719</v>
+        <v>0.001101016757594442</v>
       </c>
       <c r="E5">
-        <v>0.07406400968623128</v>
+        <v>0.02300398908282908</v>
       </c>
       <c r="F5">
-        <v>5.186749972224661</v>
+        <v>2.852434366863903</v>
       </c>
       <c r="G5">
-        <v>0.002699792851489979</v>
+        <v>0.0008806205696232974</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.805886006139588</v>
+        <v>2.108188322039283</v>
       </c>
       <c r="J5">
-        <v>0.2133063646979139</v>
+        <v>0.08606488024374315</v>
       </c>
       <c r="K5">
-        <v>3.197055042676453</v>
+        <v>2.777597407755422</v>
       </c>
       <c r="L5">
-        <v>0.1590854509955761</v>
+        <v>0.05627945109832133</v>
       </c>
       <c r="M5">
-        <v>0.7835507089212541</v>
+        <v>0.5359406708639582</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03117498648161288</v>
+        <v>0.008231208889590391</v>
       </c>
       <c r="D6">
-        <v>0.001583071255377266</v>
+        <v>0.00111140161408807</v>
       </c>
       <c r="E6">
-        <v>0.07407429299258972</v>
+        <v>0.02298811657261979</v>
       </c>
       <c r="F6">
-        <v>5.186781372248248</v>
+        <v>2.847286822753858</v>
       </c>
       <c r="G6">
-        <v>0.002700052882895728</v>
+        <v>0.0008810221981606392</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.80590409770565</v>
+        <v>2.1043933155254</v>
       </c>
       <c r="J6">
-        <v>0.2133499491086397</v>
+        <v>0.08607097393774765</v>
       </c>
       <c r="K6">
-        <v>3.193444075325857</v>
+        <v>2.759801064531388</v>
       </c>
       <c r="L6">
-        <v>0.1591159269842546</v>
+        <v>0.05629299804107291</v>
       </c>
       <c r="M6">
-        <v>0.7830025811360244</v>
+        <v>0.5328584043957179</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03121415935569516</v>
+        <v>0.008550293812099596</v>
       </c>
       <c r="D7">
-        <v>0.001596234319836132</v>
+        <v>0.001040370141743407</v>
       </c>
       <c r="E7">
-        <v>0.07400450708680051</v>
+        <v>0.02310001643758053</v>
       </c>
       <c r="F7">
-        <v>5.186766651426936</v>
+        <v>2.883472648595799</v>
       </c>
       <c r="G7">
-        <v>0.00269826447375987</v>
+        <v>0.0008782488873425277</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.80592839886144</v>
+        <v>2.131074467004069</v>
       </c>
       <c r="J7">
-        <v>0.2130527174799788</v>
+        <v>0.08603714364173243</v>
       </c>
       <c r="K7">
-        <v>3.218680107618212</v>
+        <v>2.883685553894452</v>
       </c>
       <c r="L7">
-        <v>0.1589075055153124</v>
+        <v>0.05620300053436722</v>
       </c>
       <c r="M7">
-        <v>0.7868454289413975</v>
+        <v>0.5543222841285953</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03140870452699218</v>
+        <v>0.009966590625683835</v>
       </c>
       <c r="D8">
-        <v>0.001653920183012136</v>
+        <v>0.0007560804120438913</v>
       </c>
       <c r="E8">
-        <v>0.0737358440964897</v>
+        <v>0.0236377343008316</v>
       </c>
       <c r="F8">
-        <v>5.191740410449739</v>
+        <v>3.055164251875254</v>
       </c>
       <c r="G8">
-        <v>0.002690779575287257</v>
+        <v>0.000866356207643415</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.809751859127005</v>
+        <v>2.257757120200168</v>
       </c>
       <c r="J8">
-        <v>0.2118720165537376</v>
+        <v>0.08610485161230841</v>
       </c>
       <c r="K8">
-        <v>3.334296291611054</v>
+        <v>3.440179475622472</v>
       </c>
       <c r="L8">
-        <v>0.158064768231867</v>
+        <v>0.05590780467876399</v>
       </c>
       <c r="M8">
-        <v>0.8047487044809642</v>
+        <v>0.6509233724081867</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03186665354413165</v>
+        <v>0.01278272841053862</v>
       </c>
       <c r="D9">
-        <v>0.001766151707204955</v>
+        <v>0.0003387114385209333</v>
       </c>
       <c r="E9">
-        <v>0.0733493361327433</v>
+        <v>0.02486300915612105</v>
       </c>
       <c r="F9">
-        <v>5.219704125788496</v>
+        <v>3.442757882203807</v>
       </c>
       <c r="G9">
-        <v>0.002677553636641142</v>
+        <v>0.000844150717401023</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.830683192362045</v>
+        <v>2.544115083037454</v>
       </c>
       <c r="J9">
-        <v>0.2100269850935028</v>
+        <v>0.08709767112791766</v>
       </c>
       <c r="K9">
-        <v>3.576328255733472</v>
+        <v>4.577018301920305</v>
       </c>
       <c r="L9">
-        <v>0.1566878712986934</v>
+        <v>0.05571830679959078</v>
       </c>
       <c r="M9">
-        <v>0.843252731008441</v>
+        <v>0.8489061850008568</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03224848783876411</v>
+        <v>0.0148867243818458</v>
       </c>
       <c r="D10">
-        <v>0.001848604423929423</v>
+        <v>0.0001579777564002516</v>
       </c>
       <c r="E10">
-        <v>0.07315019237385201</v>
+        <v>0.0258816269854929</v>
       </c>
       <c r="F10">
-        <v>5.251455250617141</v>
+        <v>3.766942691555272</v>
       </c>
       <c r="G10">
-        <v>0.002668711462914722</v>
+        <v>0.0008283818033413278</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.854330830466878</v>
+        <v>2.783899847372794</v>
       </c>
       <c r="J10">
-        <v>0.2089580575545824</v>
+        <v>0.08843805541642524</v>
       </c>
       <c r="K10">
-        <v>3.763532586164104</v>
+        <v>5.451269707448887</v>
       </c>
       <c r="L10">
-        <v>0.1558434888105502</v>
+        <v>0.05584131857784769</v>
       </c>
       <c r="M10">
-        <v>0.8736155429424528</v>
+        <v>1.001514094304319</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03243179989079792</v>
+        <v>0.01585467398657059</v>
       </c>
       <c r="D11">
-        <v>0.001886236187263357</v>
+        <v>0.000114192590118245</v>
       </c>
       <c r="E11">
-        <v>0.07307786555939977</v>
+        <v>0.02637444307629444</v>
       </c>
       <c r="F11">
-        <v>5.268356383008154</v>
+        <v>3.925145956235838</v>
       </c>
       <c r="G11">
-        <v>0.002664876729979016</v>
+        <v>0.000821292086772063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.866902209091521</v>
+        <v>2.900986211727869</v>
       </c>
       <c r="J11">
-        <v>0.2085340011260399</v>
+        <v>0.08920282749403796</v>
       </c>
       <c r="K11">
-        <v>3.850747761215075</v>
+        <v>5.860374292454878</v>
       </c>
       <c r="L11">
-        <v>0.1554954915851923</v>
+        <v>0.05596061601060498</v>
       </c>
       <c r="M11">
-        <v>0.8878799968853315</v>
+        <v>1.072993647856137</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03250257664393885</v>
+        <v>0.01622309024457635</v>
       </c>
       <c r="D12">
-        <v>0.001900514542377163</v>
+        <v>0.0001042673688820273</v>
       </c>
       <c r="E12">
-        <v>0.07305309125679038</v>
+        <v>0.02656565025349344</v>
       </c>
       <c r="F12">
-        <v>5.275111548642229</v>
+        <v>3.986805245542996</v>
       </c>
       <c r="G12">
-        <v>0.002663451428412125</v>
+        <v>0.0008186161342051236</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.871924864452652</v>
+        <v>2.946631486375622</v>
       </c>
       <c r="J12">
-        <v>0.2083823662566111</v>
+        <v>0.08951687592286461</v>
       </c>
       <c r="K12">
-        <v>3.88407005395112</v>
+        <v>6.01721205230848</v>
       </c>
       <c r="L12">
-        <v>0.1553688936564015</v>
+        <v>0.05601551441951713</v>
       </c>
       <c r="M12">
-        <v>0.8933466395115204</v>
+        <v>1.100405242382735</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03248727344275082</v>
+        <v>0.01614365617552238</v>
       </c>
       <c r="D13">
-        <v>0.001897438030485255</v>
+        <v>0.0001060888679638161</v>
       </c>
       <c r="E13">
-        <v>0.0730583107663243</v>
+        <v>0.0265242601305431</v>
       </c>
       <c r="F13">
-        <v>5.273640883488241</v>
+        <v>3.973444313280112</v>
       </c>
       <c r="G13">
-        <v>0.002663757201709298</v>
+        <v>0.000819192114892239</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.87083146576208</v>
+        <v>2.936740113114311</v>
       </c>
       <c r="J13">
-        <v>0.2084146256355304</v>
+        <v>0.08944811534076536</v>
       </c>
       <c r="K13">
-        <v>3.876880340942876</v>
+        <v>5.983344046007289</v>
       </c>
       <c r="L13">
-        <v>0.1553959285524762</v>
+        <v>0.05600324796817802</v>
       </c>
       <c r="M13">
-        <v>0.8921664095347097</v>
+        <v>1.094485538633293</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03243759559606474</v>
+        <v>0.01588494422412623</v>
       </c>
       <c r="D14">
-        <v>0.001887410254513</v>
+        <v>0.0001132354920734269</v>
       </c>
       <c r="E14">
-        <v>0.07307577503724616</v>
+        <v>0.02639007964403639</v>
       </c>
       <c r="F14">
-        <v>5.268905008511865</v>
+        <v>3.930182314541042</v>
       </c>
       <c r="G14">
-        <v>0.002664758932521317</v>
+        <v>0.0008210717789312347</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.867310164633295</v>
+        <v>2.904714309817024</v>
       </c>
       <c r="J14">
-        <v>0.2085213467329332</v>
+        <v>0.08922816115170917</v>
       </c>
       <c r="K14">
-        <v>3.853483276148495</v>
+        <v>5.87323724129044</v>
       </c>
       <c r="L14">
-        <v>0.1554849725318022</v>
+        <v>0.05596493386086365</v>
       </c>
       <c r="M14">
-        <v>0.8883284382344954</v>
+        <v>1.07524162715076</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03240734300679549</v>
+        <v>0.01572673019861526</v>
       </c>
       <c r="D15">
-        <v>0.001881271911764237</v>
+        <v>0.0001185165331401006</v>
       </c>
       <c r="E15">
-        <v>0.07308681250817273</v>
+        <v>0.02630849911201238</v>
       </c>
       <c r="F15">
-        <v>5.26605044034207</v>
+        <v>3.903917798933463</v>
       </c>
       <c r="G15">
-        <v>0.002665376011129999</v>
+        <v>0.0008222241654530396</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.865187444250623</v>
+        <v>2.885272800055461</v>
       </c>
       <c r="J15">
-        <v>0.2085878815740827</v>
+        <v>0.08909668524199077</v>
       </c>
       <c r="K15">
-        <v>3.839190429865369</v>
+        <v>5.806052445873661</v>
       </c>
       <c r="L15">
-        <v>0.1555401889013517</v>
+        <v>0.05594275121484671</v>
       </c>
       <c r="M15">
-        <v>0.8859860346430395</v>
+        <v>1.063500488161687</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03223669952868491</v>
+        <v>0.01482371042719421</v>
       </c>
       <c r="D16">
-        <v>0.001846148454969221</v>
+        <v>0.0001617047596242926</v>
       </c>
       <c r="E16">
-        <v>0.07315528559087348</v>
+        <v>0.02585004199916696</v>
       </c>
       <c r="F16">
-        <v>5.250400315990078</v>
+        <v>3.756836824896027</v>
       </c>
       <c r="G16">
-        <v>0.002668965834400135</v>
+        <v>0.000828846547035563</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.853545873675188</v>
+        <v>2.776421952966174</v>
       </c>
       <c r="J16">
-        <v>0.2089870224417041</v>
+        <v>0.08839137296122956</v>
       </c>
       <c r="K16">
-        <v>3.757874244735206</v>
+        <v>5.424786226596495</v>
       </c>
       <c r="L16">
-        <v>0.1558669569372562</v>
+        <v>0.05583484753880796</v>
       </c>
       <c r="M16">
-        <v>0.8726924250517385</v>
+        <v>0.9968880960623778</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03213446180650692</v>
+        <v>0.01427272002154467</v>
       </c>
       <c r="D17">
-        <v>0.001824640189616478</v>
+        <v>0.0001987874922952937</v>
       </c>
       <c r="E17">
-        <v>0.07320196093148468</v>
+        <v>0.02557657208706132</v>
       </c>
       <c r="F17">
-        <v>5.241430073389466</v>
+        <v>3.669495288279819</v>
       </c>
       <c r="G17">
-        <v>0.002671216020304615</v>
+        <v>0.0008329283958473925</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.846869665688445</v>
+        <v>2.711800807020694</v>
       </c>
       <c r="J17">
-        <v>0.2092478151565409</v>
+        <v>0.08799983778857268</v>
       </c>
       <c r="K17">
-        <v>3.708515920783555</v>
+        <v>5.193999422197521</v>
       </c>
       <c r="L17">
-        <v>0.1560766599481376</v>
+        <v>0.0557852880540608</v>
       </c>
       <c r="M17">
-        <v>0.8646530350733741</v>
+        <v>0.9565826950496756</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03207656354898702</v>
+        <v>0.01395680238211838</v>
       </c>
       <c r="D18">
-        <v>0.001812280205089056</v>
+        <v>0.0002236559640322877</v>
       </c>
       <c r="E18">
-        <v>0.07323052722605539</v>
+        <v>0.02542202678980843</v>
       </c>
       <c r="F18">
-        <v>5.236501824865456</v>
+        <v>3.620254730195512</v>
       </c>
       <c r="G18">
-        <v>0.002672527936042548</v>
+        <v>0.0008352842576522634</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.843200346144386</v>
+        <v>2.675375639260764</v>
       </c>
       <c r="J18">
-        <v>0.2094036710781921</v>
+        <v>0.08778908436449129</v>
       </c>
       <c r="K18">
-        <v>3.680319722089621</v>
+        <v>5.062311534711398</v>
       </c>
       <c r="L18">
-        <v>0.1562006757734267</v>
+        <v>0.05576270333486377</v>
       </c>
       <c r="M18">
-        <v>0.8600715604658546</v>
+        <v>0.9335905289258619</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03205711650626242</v>
+        <v>0.01385000062528263</v>
       </c>
       <c r="D19">
-        <v>0.001808096910019596</v>
+        <v>0.0002326525428291149</v>
       </c>
       <c r="E19">
-        <v>0.07324049504553187</v>
+        <v>0.02537016221204169</v>
       </c>
       <c r="F19">
-        <v>5.234872861401016</v>
+        <v>3.603747880541363</v>
       </c>
       <c r="G19">
-        <v>0.002672975167326635</v>
+        <v>0.0008360833942943028</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.841987248901589</v>
+        <v>2.663165931839615</v>
       </c>
       <c r="J19">
-        <v>0.2094574467585453</v>
+        <v>0.08772014709492382</v>
       </c>
       <c r="K19">
-        <v>3.670806182960291</v>
+        <v>5.017897499071069</v>
       </c>
       <c r="L19">
-        <v>0.1562432497713644</v>
+        <v>0.05575605592356681</v>
       </c>
       <c r="M19">
-        <v>0.8585276644121222</v>
+        <v>0.9258371236104566</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03214525156231929</v>
+        <v>0.01433126853234512</v>
       </c>
       <c r="D20">
-        <v>0.001826928570443531</v>
+        <v>0.0001944660756394434</v>
       </c>
       <c r="E20">
-        <v>0.07319681435001435</v>
+        <v>0.02560539666348483</v>
       </c>
       <c r="F20">
-        <v>5.242361030663972</v>
+        <v>3.678688442473543</v>
       </c>
       <c r="G20">
-        <v>0.002670974656591356</v>
+        <v>0.0008324930608491696</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.847562687510376</v>
+        <v>2.718601855991494</v>
       </c>
       <c r="J20">
-        <v>0.2092194473646032</v>
+        <v>0.0880400074342127</v>
       </c>
       <c r="K20">
-        <v>3.713750180136117</v>
+        <v>5.218456023889587</v>
       </c>
       <c r="L20">
-        <v>0.1560539848880467</v>
+        <v>0.05578994678226579</v>
       </c>
       <c r="M20">
-        <v>0.8655044362988988</v>
+        <v>0.9608532371382736</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03245215043406446</v>
+        <v>0.01596088050808575</v>
       </c>
       <c r="D21">
-        <v>0.001890354811272754</v>
+        <v>0.0001109457650287915</v>
       </c>
       <c r="E21">
-        <v>0.07307057450224086</v>
+        <v>0.02642936411137065</v>
       </c>
       <c r="F21">
-        <v>5.270286399506318</v>
+        <v>3.942840087375771</v>
       </c>
       <c r="G21">
-        <v>0.002664463972953885</v>
+        <v>0.0008205194660735979</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.868337331068957</v>
+        <v>2.914084240619772</v>
       </c>
       <c r="J21">
-        <v>0.2084897573536786</v>
+        <v>0.08929208497777097</v>
       </c>
       <c r="K21">
-        <v>3.860347530696743</v>
+        <v>5.905523792255792</v>
       </c>
       <c r="L21">
-        <v>0.1554586776419598</v>
+        <v>0.05597591845954142</v>
       </c>
       <c r="M21">
-        <v>0.8894539794531937</v>
+        <v>1.080884283990343</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03266064648067157</v>
+        <v>0.01703704311867327</v>
       </c>
       <c r="D22">
-        <v>0.001931975875235636</v>
+        <v>9.582458883539147E-05</v>
       </c>
       <c r="E22">
-        <v>0.07300330205383432</v>
+        <v>0.02699481997848707</v>
       </c>
       <c r="F22">
-        <v>5.290607689057794</v>
+        <v>4.1258033435534</v>
       </c>
       <c r="G22">
-        <v>0.002660365174176116</v>
+        <v>0.0008127433108335403</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.883443371576121</v>
+        <v>3.049550924899222</v>
       </c>
       <c r="J22">
-        <v>0.2080650082581386</v>
+        <v>0.09025409613371593</v>
       </c>
       <c r="K22">
-        <v>3.957881694432103</v>
+        <v>6.365904318822174</v>
       </c>
       <c r="L22">
-        <v>0.1550998035284756</v>
+        <v>0.05615448123485223</v>
       </c>
       <c r="M22">
-        <v>0.9054852740633237</v>
+        <v>1.161362837531598</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03254865069855839</v>
+        <v>0.01646153772923498</v>
       </c>
       <c r="D23">
-        <v>0.001909743047824541</v>
+        <v>9.985817300717237E-05</v>
       </c>
       <c r="E23">
-        <v>0.07303781680835186</v>
+        <v>0.02669042990262227</v>
       </c>
       <c r="F23">
-        <v>5.279571819676363</v>
+        <v>4.027131295859078</v>
       </c>
       <c r="G23">
-        <v>0.002662538527412963</v>
+        <v>0.0008168902732948631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.87524069079322</v>
+        <v>2.976487383016902</v>
       </c>
       <c r="J23">
-        <v>0.2082869330325856</v>
+        <v>0.08972671417459921</v>
       </c>
       <c r="K23">
-        <v>3.905667987429467</v>
+        <v>6.119050324604245</v>
       </c>
       <c r="L23">
-        <v>0.1552885827467989</v>
+        <v>0.0560537367035927</v>
       </c>
       <c r="M23">
-        <v>0.8968944098323703</v>
+        <v>1.118206445078954</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03214037077233556</v>
+        <v>0.01430479611365598</v>
       </c>
       <c r="D24">
-        <v>0.001825893977671189</v>
+        <v>0.0001964088161248156</v>
       </c>
       <c r="E24">
-        <v>0.07319913572368542</v>
+        <v>0.02559235676284111</v>
       </c>
       <c r="F24">
-        <v>5.241939432150161</v>
+        <v>3.674529201367477</v>
       </c>
       <c r="G24">
-        <v>0.002671083720469314</v>
+        <v>0.0008326898470210413</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.847248846290654</v>
+        <v>2.71552485071615</v>
       </c>
       <c r="J24">
-        <v>0.2092322539953209</v>
+        <v>0.0880218022138699</v>
       </c>
       <c r="K24">
-        <v>3.711383209101996</v>
+        <v>5.207396117141684</v>
       </c>
       <c r="L24">
-        <v>0.1560642255212663</v>
+        <v>0.05578782221554235</v>
       </c>
       <c r="M24">
-        <v>0.8651193917229918</v>
+        <v>0.9589219681105874</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.031734710320098</v>
+        <v>0.012015686120467</v>
       </c>
       <c r="D25">
-        <v>0.001735830989555431</v>
+        <v>0.0004328177946586464</v>
       </c>
       <c r="E25">
-        <v>0.07343894872422396</v>
+        <v>0.02451188166221208</v>
       </c>
       <c r="F25">
-        <v>5.210178911640526</v>
+        <v>3.331645451343832</v>
       </c>
       <c r="G25">
-        <v>0.002680977222810579</v>
+        <v>0.0008500514684409999</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.823574345408701</v>
+        <v>2.461982185671957</v>
       </c>
       <c r="J25">
-        <v>0.2104757757534941</v>
+        <v>0.08672865928592444</v>
       </c>
       <c r="K25">
-        <v>3.509208239306531</v>
+        <v>4.263514457359577</v>
       </c>
       <c r="L25">
-        <v>0.1570309310358873</v>
+        <v>0.05572548688404311</v>
       </c>
       <c r="M25">
-        <v>0.832472483258293</v>
+        <v>0.7942448388986136</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01035260797890558</v>
+        <v>0.1021522611393451</v>
       </c>
       <c r="D2">
-        <v>0.0006872429547801762</v>
+        <v>0.1470681416930688</v>
       </c>
       <c r="E2">
-        <v>0.02379451626701901</v>
+        <v>0.5362565655093618</v>
       </c>
       <c r="F2">
-        <v>3.104850191676519</v>
+        <v>0.1269636665262652</v>
       </c>
       <c r="G2">
-        <v>0.0008632139312797742</v>
+        <v>0.2182011302587767</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.05025291108567864</v>
       </c>
       <c r="I2">
-        <v>2.294440270566454</v>
+        <v>0.04112684822281798</v>
       </c>
       <c r="J2">
-        <v>0.08617851552634193</v>
+        <v>0.1649913871622957</v>
       </c>
       <c r="K2">
-        <v>3.593671500946812</v>
+        <v>0.2409946667826652</v>
       </c>
       <c r="L2">
-        <v>0.05585334422295496</v>
+        <v>1.116917749586833</v>
       </c>
       <c r="M2">
-        <v>0.6776115963362273</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>32.40857865309403</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7599213260961051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009235735655483523</v>
+        <v>0.0889295288370775</v>
       </c>
       <c r="D3">
-        <v>0.0008965218385634799</v>
+        <v>0.1336228334703691</v>
       </c>
       <c r="E3">
-        <v>0.02335241206173233</v>
+        <v>0.4711252188650903</v>
       </c>
       <c r="F3">
-        <v>2.964400110074891</v>
+        <v>0.1307144878296214</v>
       </c>
       <c r="G3">
-        <v>0.0008724153372713397</v>
+        <v>0.1949032235986223</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0331581209549493</v>
       </c>
       <c r="I3">
-        <v>2.190770365516002</v>
+        <v>0.03213130411167464</v>
       </c>
       <c r="J3">
-        <v>0.08602793422551613</v>
+        <v>0.163216195905612</v>
       </c>
       <c r="K3">
-        <v>3.151682312711387</v>
+        <v>0.2233307717905326</v>
       </c>
       <c r="L3">
-        <v>0.05604020473186111</v>
+        <v>0.9772489767137245</v>
       </c>
       <c r="M3">
-        <v>0.600809297219115</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>27.86839036041141</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7062827475210298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008554031647186378</v>
+        <v>0.08083552877116773</v>
       </c>
       <c r="D4">
-        <v>0.001039553497150347</v>
+        <v>0.1257261242995753</v>
       </c>
       <c r="E4">
-        <v>0.02310134929053653</v>
+        <v>0.4316300283626973</v>
       </c>
       <c r="F4">
-        <v>2.88390230804751</v>
+        <v>0.1358041771117975</v>
       </c>
       <c r="G4">
-        <v>0.0008782166306514051</v>
+        <v>0.1824211155721756</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02451015774500678</v>
       </c>
       <c r="I4">
-        <v>2.131391315581382</v>
+        <v>0.02712166425566087</v>
       </c>
       <c r="J4">
-        <v>0.08603686309112035</v>
+        <v>0.1630621760632494</v>
       </c>
       <c r="K4">
-        <v>2.885140087853358</v>
+        <v>0.2135218847868003</v>
       </c>
       <c r="L4">
-        <v>0.05620200225260952</v>
+        <v>0.8922385773071255</v>
       </c>
       <c r="M4">
-        <v>0.5545743938620831</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.15148516953082</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.679165550250616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.008277135698797622</v>
+        <v>0.07716419347525516</v>
       </c>
       <c r="D5">
-        <v>0.001101016757594442</v>
+        <v>0.1224828105411717</v>
       </c>
       <c r="E5">
-        <v>0.02300398908282908</v>
+        <v>0.4155699617362316</v>
       </c>
       <c r="F5">
-        <v>2.852434366863903</v>
+        <v>0.1382739846709633</v>
       </c>
       <c r="G5">
-        <v>0.0008806205696232974</v>
+        <v>0.177362292134589</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02136683438597456</v>
       </c>
       <c r="I5">
-        <v>2.108188322039283</v>
+        <v>0.02521922130884358</v>
       </c>
       <c r="J5">
-        <v>0.08606488024374315</v>
+        <v>0.163020790170286</v>
       </c>
       <c r="K5">
-        <v>2.777597407755422</v>
+        <v>0.2092671470695926</v>
       </c>
       <c r="L5">
-        <v>0.05627945109832133</v>
+        <v>0.857765522324712</v>
       </c>
       <c r="M5">
-        <v>0.5359406708639582</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.05801768784272</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6682162269191423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.008231208889590391</v>
+        <v>0.07610283252564187</v>
       </c>
       <c r="D6">
-        <v>0.00111140161408807</v>
+        <v>0.1218265352234624</v>
       </c>
       <c r="E6">
-        <v>0.02298811657261979</v>
+        <v>0.4128397861377096</v>
       </c>
       <c r="F6">
-        <v>2.847286822753858</v>
+        <v>0.1384488433290869</v>
       </c>
       <c r="G6">
-        <v>0.0008810221981606392</v>
+        <v>0.1760916562212529</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02085985458269776</v>
       </c>
       <c r="I6">
-        <v>2.1043933155254</v>
+        <v>0.02495219149916927</v>
       </c>
       <c r="J6">
-        <v>0.08607097393774765</v>
+        <v>0.1627945266965796</v>
       </c>
       <c r="K6">
-        <v>2.759801064531388</v>
+        <v>0.2079810163437266</v>
       </c>
       <c r="L6">
-        <v>0.05629299804107291</v>
+        <v>0.8521002050201218</v>
       </c>
       <c r="M6">
-        <v>0.5328584043957179</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>23.87711825622574</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6650251705807477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008550293812099596</v>
+        <v>0.07954612450875231</v>
       </c>
       <c r="D7">
-        <v>0.001040370141743407</v>
+        <v>0.1253497487940507</v>
       </c>
       <c r="E7">
-        <v>0.02310001643758053</v>
+        <v>0.4312283161441997</v>
       </c>
       <c r="F7">
-        <v>2.883472648595799</v>
+        <v>0.1350925895180737</v>
       </c>
       <c r="G7">
-        <v>0.0008782488873425277</v>
+        <v>0.1811067812368137</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02444764741776653</v>
       </c>
       <c r="I7">
-        <v>2.131074467004069</v>
+        <v>0.02719600310703818</v>
       </c>
       <c r="J7">
-        <v>0.08603714364173243</v>
+        <v>0.1624260670100668</v>
       </c>
       <c r="K7">
-        <v>2.883685553894452</v>
+        <v>0.2118366582129383</v>
       </c>
       <c r="L7">
-        <v>0.05620300053436722</v>
+        <v>0.8919192572989516</v>
       </c>
       <c r="M7">
-        <v>0.5543222841285953</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.1365235416842</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6750440613199373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.009966590625683835</v>
+        <v>0.09592183429771239</v>
       </c>
       <c r="D8">
-        <v>0.0007560804120438913</v>
+        <v>0.1419099751919788</v>
       </c>
       <c r="E8">
-        <v>0.0236377343008316</v>
+        <v>0.5134329684778365</v>
       </c>
       <c r="F8">
-        <v>3.055164251875254</v>
+        <v>0.1266209399442424</v>
       </c>
       <c r="G8">
-        <v>0.000866356207643415</v>
+        <v>0.2080724243267227</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.04389110213412584</v>
       </c>
       <c r="I8">
-        <v>2.257757120200168</v>
+        <v>0.03800552872656571</v>
       </c>
       <c r="J8">
-        <v>0.08610485161230841</v>
+        <v>0.1633174302785747</v>
       </c>
       <c r="K8">
-        <v>3.440179475622472</v>
+        <v>0.2324777572982875</v>
       </c>
       <c r="L8">
-        <v>0.05590780467876399</v>
+        <v>1.068764337067734</v>
       </c>
       <c r="M8">
-        <v>0.6509233724081867</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>30.82543590709497</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7347606103702589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01278272841053862</v>
+        <v>0.130997557996622</v>
       </c>
       <c r="D9">
-        <v>0.0003387114385209333</v>
+        <v>0.1788004809727539</v>
       </c>
       <c r="E9">
-        <v>0.02486300915612105</v>
+        <v>0.6810318694364668</v>
       </c>
       <c r="F9">
-        <v>3.442757882203807</v>
+        <v>0.1381157249215299</v>
       </c>
       <c r="G9">
-        <v>0.000844150717401023</v>
+        <v>0.2809886409971938</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1012376316828387</v>
       </c>
       <c r="I9">
-        <v>2.544115083037454</v>
+        <v>0.06421180340212995</v>
       </c>
       <c r="J9">
-        <v>0.08709767112791766</v>
+        <v>0.1749862936959659</v>
       </c>
       <c r="K9">
-        <v>4.577018301920305</v>
+        <v>0.2859789993551587</v>
       </c>
       <c r="L9">
-        <v>0.05571830679959078</v>
+        <v>1.425026872783604</v>
       </c>
       <c r="M9">
-        <v>0.8489061850008568</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.78223845078719</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9150705810891964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0148867243818458</v>
+        <v>0.1583238215539637</v>
       </c>
       <c r="D10">
-        <v>0.0001579777564002516</v>
+        <v>0.2163840906231229</v>
       </c>
       <c r="E10">
-        <v>0.0258816269854929</v>
+        <v>0.8314194196592268</v>
       </c>
       <c r="F10">
-        <v>3.766942691555272</v>
+        <v>0.1645946328651604</v>
       </c>
       <c r="G10">
-        <v>0.0008283818033413278</v>
+        <v>0.3445662438342083</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1631934581130352</v>
       </c>
       <c r="I10">
-        <v>2.783899847372794</v>
+        <v>0.08848347127594103</v>
       </c>
       <c r="J10">
-        <v>0.08843805541642524</v>
+        <v>0.1877348951994264</v>
       </c>
       <c r="K10">
-        <v>5.451269707448887</v>
+        <v>0.3290553629787567</v>
       </c>
       <c r="L10">
-        <v>0.05584131857784769</v>
+        <v>1.738300781500016</v>
       </c>
       <c r="M10">
-        <v>1.001514094304319</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>52.51891184718386</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.077496987955612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01585467398657059</v>
+        <v>0.1764116617956546</v>
       </c>
       <c r="D11">
-        <v>0.000114192590118245</v>
+        <v>0.2950543948097248</v>
       </c>
       <c r="E11">
-        <v>0.02637444307629444</v>
+        <v>1.085135853228479</v>
       </c>
       <c r="F11">
-        <v>3.925145956235838</v>
+        <v>0.1329597622864931</v>
       </c>
       <c r="G11">
-        <v>0.000821292086772063</v>
+        <v>0.3253854406720933</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2133522395884846</v>
       </c>
       <c r="I11">
-        <v>2.900986211727869</v>
+        <v>0.101330385195979</v>
       </c>
       <c r="J11">
-        <v>0.08920282749403796</v>
+        <v>0.1674543050062596</v>
       </c>
       <c r="K11">
-        <v>5.860374292454878</v>
+        <v>0.3080739784889417</v>
       </c>
       <c r="L11">
-        <v>0.05596061601060498</v>
+        <v>2.242556390005575</v>
       </c>
       <c r="M11">
-        <v>1.072993647856137</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>57.30892038465004</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9948565230170345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01622309024457635</v>
+        <v>0.1885241637067026</v>
       </c>
       <c r="D12">
-        <v>0.0001042673688820273</v>
+        <v>0.3615947866630194</v>
       </c>
       <c r="E12">
-        <v>0.02656565025349344</v>
+        <v>1.288072716249189</v>
       </c>
       <c r="F12">
-        <v>3.986805245542996</v>
+        <v>0.1057783233740928</v>
       </c>
       <c r="G12">
-        <v>0.0008186161342051236</v>
+        <v>0.2983406158880371</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2660447443501681</v>
       </c>
       <c r="I12">
-        <v>2.946631486375622</v>
+        <v>0.1067867529366797</v>
       </c>
       <c r="J12">
-        <v>0.08951687592286461</v>
+        <v>0.1487482302866425</v>
       </c>
       <c r="K12">
-        <v>6.01721205230848</v>
+        <v>0.2838913087324073</v>
       </c>
       <c r="L12">
-        <v>0.05601551441951713</v>
+        <v>2.640036780094391</v>
       </c>
       <c r="M12">
-        <v>1.100405242382735</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>59.20453813901258</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.8985734576401114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01614365617552238</v>
+        <v>0.1942228083441648</v>
       </c>
       <c r="D13">
-        <v>0.0001060888679638161</v>
+        <v>0.4207474639416375</v>
       </c>
       <c r="E13">
-        <v>0.0265242601305431</v>
+        <v>1.459708236712274</v>
       </c>
       <c r="F13">
-        <v>3.973444313280112</v>
+        <v>0.07622710138954147</v>
       </c>
       <c r="G13">
-        <v>0.000819192114892239</v>
+        <v>0.2596461280725038</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3198499642696504</v>
       </c>
       <c r="I13">
-        <v>2.936740113114311</v>
+        <v>0.106196455019318</v>
       </c>
       <c r="J13">
-        <v>0.08944811534076536</v>
+        <v>0.12832077024526</v>
       </c>
       <c r="K13">
-        <v>5.983344046007289</v>
+        <v>0.2521424403038353</v>
       </c>
       <c r="L13">
-        <v>0.05600324796817802</v>
+        <v>2.9716110673495</v>
       </c>
       <c r="M13">
-        <v>1.094485538633293</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>58.80216211597451</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.7737853648344952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01588494422412623</v>
+        <v>0.1948770968424469</v>
       </c>
       <c r="D14">
-        <v>0.0001132354920734269</v>
+        <v>0.4591608902130133</v>
       </c>
       <c r="E14">
-        <v>0.02639007964403639</v>
+        <v>1.566685273043632</v>
       </c>
       <c r="F14">
-        <v>3.930182314541042</v>
+        <v>0.05538621552083356</v>
       </c>
       <c r="G14">
-        <v>0.0008210717789312347</v>
+        <v>0.2275548975612125</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3607506573013097</v>
       </c>
       <c r="I14">
-        <v>2.904714309817024</v>
+        <v>0.10308071532853</v>
       </c>
       <c r="J14">
-        <v>0.08922816115170917</v>
+        <v>0.1133368003980735</v>
       </c>
       <c r="K14">
-        <v>5.87323724129044</v>
+        <v>0.2264258443758393</v>
       </c>
       <c r="L14">
-        <v>0.05596493386086365</v>
+        <v>3.175840063488749</v>
       </c>
       <c r="M14">
-        <v>1.07524162715076</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>57.48332670255064</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6742959340048316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01572673019861526</v>
+        <v>0.1929705056874127</v>
       </c>
       <c r="D15">
-        <v>0.0001185165331401006</v>
+        <v>0.4655455455029198</v>
       </c>
       <c r="E15">
-        <v>0.02630849911201238</v>
+        <v>1.582710451786326</v>
       </c>
       <c r="F15">
-        <v>3.903917798933463</v>
+        <v>0.04907861937704894</v>
       </c>
       <c r="G15">
-        <v>0.0008222241654530396</v>
+        <v>0.2167914260884274</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.367556396111155</v>
       </c>
       <c r="I15">
-        <v>2.885272800055461</v>
+        <v>0.1010568212899088</v>
       </c>
       <c r="J15">
-        <v>0.08909668524199077</v>
+        <v>0.1091119490982564</v>
       </c>
       <c r="K15">
-        <v>5.806052445873661</v>
+        <v>0.2180287236790051</v>
       </c>
       <c r="L15">
-        <v>0.05594275121484671</v>
+        <v>3.205445995178707</v>
       </c>
       <c r="M15">
-        <v>1.063500488161687</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>56.68171765051443</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6425659637220065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01482371042719421</v>
+        <v>0.1780015792127045</v>
       </c>
       <c r="D16">
-        <v>0.0001617047596242926</v>
+        <v>0.4331598448804073</v>
       </c>
       <c r="E16">
-        <v>0.02585004199916696</v>
+        <v>1.472658755704629</v>
       </c>
       <c r="F16">
-        <v>3.756836824896027</v>
+        <v>0.03656461188277405</v>
       </c>
       <c r="G16">
-        <v>0.000828846547035563</v>
+        <v>0.1925149488410867</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3209834258633606</v>
       </c>
       <c r="I16">
-        <v>2.776421952966174</v>
+        <v>0.08901085735510961</v>
       </c>
       <c r="J16">
-        <v>0.08839137296122956</v>
+        <v>0.10568221955279</v>
       </c>
       <c r="K16">
-        <v>5.424786226596495</v>
+        <v>0.2030625107412689</v>
       </c>
       <c r="L16">
-        <v>0.05583484753880796</v>
+        <v>2.983887042022047</v>
       </c>
       <c r="M16">
-        <v>0.9968880960623778</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>52.21296971861665</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5834891676082492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01427272002154467</v>
+        <v>0.1664082630521051</v>
       </c>
       <c r="D17">
-        <v>0.0001987874922952937</v>
+        <v>0.3882267093913043</v>
       </c>
       <c r="E17">
-        <v>0.02557657208706132</v>
+        <v>1.332253067126899</v>
       </c>
       <c r="F17">
-        <v>3.669495288279819</v>
+        <v>0.03919995043529667</v>
       </c>
       <c r="G17">
-        <v>0.0008329283958473925</v>
+        <v>0.1917745846170362</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.263692854714634</v>
       </c>
       <c r="I17">
-        <v>2.711800807020694</v>
+        <v>0.0818833404576651</v>
       </c>
       <c r="J17">
-        <v>0.08799983778857268</v>
+        <v>0.1113659145716994</v>
       </c>
       <c r="K17">
-        <v>5.193999422197521</v>
+        <v>0.2056132187799236</v>
       </c>
       <c r="L17">
-        <v>0.0557852880540608</v>
+        <v>2.707059411255329</v>
       </c>
       <c r="M17">
-        <v>0.9565826950496756</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>49.57734759344629</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5935387663689511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01395680238211838</v>
+        <v>0.1576013115756467</v>
       </c>
       <c r="D18">
-        <v>0.0002236559640322877</v>
+        <v>0.3306643552885191</v>
       </c>
       <c r="E18">
-        <v>0.02542202678980843</v>
+        <v>1.157741139989085</v>
       </c>
       <c r="F18">
-        <v>3.620254730195512</v>
+        <v>0.05621476502111022</v>
       </c>
       <c r="G18">
-        <v>0.0008352842576522634</v>
+        <v>0.2115601497228425</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2001404743425468</v>
       </c>
       <c r="I18">
-        <v>2.675375639260764</v>
+        <v>0.0776336386154286</v>
       </c>
       <c r="J18">
-        <v>0.08778908436449129</v>
+        <v>0.1257349204581004</v>
       </c>
       <c r="K18">
-        <v>5.062311534711398</v>
+        <v>0.2243363219261667</v>
       </c>
       <c r="L18">
-        <v>0.05576270333486377</v>
+        <v>2.36570738619352</v>
       </c>
       <c r="M18">
-        <v>0.9335905289258619</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>48.09408839055698</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6653854582125973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01385000062528263</v>
+        <v>0.1493043942436572</v>
       </c>
       <c r="D19">
-        <v>0.0002326525428291149</v>
+        <v>0.2707312778048703</v>
       </c>
       <c r="E19">
-        <v>0.02537016221204169</v>
+        <v>0.9795338721008164</v>
       </c>
       <c r="F19">
-        <v>3.603747880541363</v>
+        <v>0.08637421650635346</v>
       </c>
       <c r="G19">
-        <v>0.0008360833942943028</v>
+        <v>0.2456225730405421</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1522159589056926</v>
       </c>
       <c r="I19">
-        <v>2.663165931839615</v>
+        <v>0.07618272924570579</v>
       </c>
       <c r="J19">
-        <v>0.08772014709492382</v>
+        <v>0.1455046763748413</v>
       </c>
       <c r="K19">
-        <v>5.017897499071069</v>
+        <v>0.2525163635050944</v>
       </c>
       <c r="L19">
-        <v>0.05575605592356681</v>
+        <v>2.019125007733948</v>
       </c>
       <c r="M19">
-        <v>0.9258371236104566</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>47.59935222911577</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7788990968742411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01433126853234512</v>
+        <v>0.1470417748003001</v>
       </c>
       <c r="D20">
-        <v>0.0001944660756394434</v>
+        <v>0.2053098319181572</v>
       </c>
       <c r="E20">
-        <v>0.02560539666348483</v>
+        <v>0.7912614623044618</v>
       </c>
       <c r="F20">
-        <v>3.678688442473543</v>
+        <v>0.1526210826002696</v>
       </c>
       <c r="G20">
-        <v>0.0008324930608491696</v>
+        <v>0.3219405461740621</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1447721899059746</v>
       </c>
       <c r="I20">
-        <v>2.718601855991494</v>
+        <v>0.08190297719915041</v>
       </c>
       <c r="J20">
-        <v>0.0880400074342127</v>
+        <v>0.1814876759063679</v>
       </c>
       <c r="K20">
-        <v>5.218456023889587</v>
+        <v>0.3113244097492611</v>
       </c>
       <c r="L20">
-        <v>0.05578994678226579</v>
+        <v>1.656501726303333</v>
       </c>
       <c r="M20">
-        <v>0.9608532371382736</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>49.86190467228107</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.016197823547259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01596088050808575</v>
+        <v>0.1686117138664969</v>
       </c>
       <c r="D21">
-        <v>0.0001109457650287915</v>
+        <v>0.2270446436220368</v>
       </c>
       <c r="E21">
-        <v>0.02642936411137065</v>
+        <v>0.8819096545253871</v>
       </c>
       <c r="F21">
-        <v>3.942840087375771</v>
+        <v>0.1949128792393822</v>
       </c>
       <c r="G21">
-        <v>0.0008205194660735979</v>
+        <v>0.3889466582255636</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2034916947396974</v>
       </c>
       <c r="I21">
-        <v>2.914084240619772</v>
+        <v>0.1029236868129839</v>
       </c>
       <c r="J21">
-        <v>0.08929208497777097</v>
+        <v>0.2001755388951096</v>
       </c>
       <c r="K21">
-        <v>5.905523792255792</v>
+        <v>0.3572488363451569</v>
       </c>
       <c r="L21">
-        <v>0.05597591845954142</v>
+        <v>1.847049963910337</v>
       </c>
       <c r="M21">
-        <v>1.080884283990343</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>57.86806444310753</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.198109040125416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01703704311867327</v>
+        <v>0.1856001011132662</v>
       </c>
       <c r="D22">
-        <v>9.582458883539147E-05</v>
+        <v>0.2469585902377816</v>
       </c>
       <c r="E22">
-        <v>0.02699481997848707</v>
+        <v>0.9555300425406728</v>
       </c>
       <c r="F22">
-        <v>4.1258033435534</v>
+        <v>0.2297544451727731</v>
       </c>
       <c r="G22">
-        <v>0.0008127433108335403</v>
+        <v>0.4377836813572742</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2505688183829413</v>
       </c>
       <c r="I22">
-        <v>3.049550924899222</v>
+        <v>0.1185139188428961</v>
       </c>
       <c r="J22">
-        <v>0.09025409613371593</v>
+        <v>0.2143535154004041</v>
       </c>
       <c r="K22">
-        <v>6.365904318822174</v>
+        <v>0.3906596476024689</v>
       </c>
       <c r="L22">
-        <v>0.05615448123485223</v>
+        <v>1.998214850195694</v>
       </c>
       <c r="M22">
-        <v>1.161362837531598</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>63.56596371303101</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.331820717740896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01646153772923498</v>
+        <v>0.1779316042819943</v>
       </c>
       <c r="D23">
-        <v>9.985817300717237E-05</v>
+        <v>0.2364543676464024</v>
       </c>
       <c r="E23">
-        <v>0.02669042990262227</v>
+        <v>0.9159165986972084</v>
       </c>
       <c r="F23">
-        <v>4.027131295859078</v>
+        <v>0.2111369222938535</v>
       </c>
       <c r="G23">
-        <v>0.0008168902732948631</v>
+        <v>0.4126434208179006</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2245083268663828</v>
       </c>
       <c r="I23">
-        <v>2.976487383016902</v>
+        <v>0.1098872082945457</v>
       </c>
       <c r="J23">
-        <v>0.08972671417459921</v>
+        <v>0.2073059189552993</v>
       </c>
       <c r="K23">
-        <v>6.119050324604245</v>
+        <v>0.3745300930056885</v>
       </c>
       <c r="L23">
-        <v>0.0560537367035927</v>
+        <v>1.916424403838278</v>
       </c>
       <c r="M23">
-        <v>1.118206445078954</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>60.47228514471618</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.263503940287592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01430479611365598</v>
+        <v>0.1484018948465433</v>
       </c>
       <c r="D24">
-        <v>0.0001964088161248156</v>
+        <v>0.2005899579040005</v>
       </c>
       <c r="E24">
-        <v>0.02559235676284111</v>
+        <v>0.7749635629899387</v>
       </c>
       <c r="F24">
-        <v>3.674529201367477</v>
+        <v>0.1585087648650827</v>
       </c>
       <c r="G24">
-        <v>0.0008326898470210413</v>
+        <v>0.3281575743391869</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1443434022085361</v>
       </c>
       <c r="I24">
-        <v>2.71552485071615</v>
+        <v>0.08142150776035351</v>
       </c>
       <c r="J24">
-        <v>0.0880218022138699</v>
+        <v>0.1849787850083686</v>
       </c>
       <c r="K24">
-        <v>5.207396117141684</v>
+        <v>0.3175082127866986</v>
       </c>
       <c r="L24">
-        <v>0.05578782221554235</v>
+        <v>1.623461484317119</v>
       </c>
       <c r="M24">
-        <v>0.9589219681105874</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>49.73945464647204</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.036673378059618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.012015686120467</v>
+        <v>0.1190676528918999</v>
       </c>
       <c r="D25">
-        <v>0.0004328177946586464</v>
+        <v>0.1676584657826936</v>
       </c>
       <c r="E25">
-        <v>0.02451188166221208</v>
+        <v>0.6343622129817845</v>
       </c>
       <c r="F25">
-        <v>3.331645451343832</v>
+        <v>0.1299848527421155</v>
       </c>
       <c r="G25">
-        <v>0.0008500514684409999</v>
+        <v>0.2564831719124143</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.08287817000734887</v>
       </c>
       <c r="I25">
-        <v>2.461982185671957</v>
+        <v>0.05655141265218067</v>
       </c>
       <c r="J25">
-        <v>0.08672865928592444</v>
+        <v>0.1694908600405398</v>
       </c>
       <c r="K25">
-        <v>4.263514457359577</v>
+        <v>0.2670812559727835</v>
       </c>
       <c r="L25">
-        <v>0.05572548688404311</v>
+        <v>1.327248056176444</v>
       </c>
       <c r="M25">
-        <v>0.7942448388986136</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>39.4219114232497</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.85126382900566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1021522611393451</v>
+        <v>0.08006446547778978</v>
       </c>
       <c r="D2">
-        <v>0.1470681416930688</v>
+        <v>0.1381994144409902</v>
       </c>
       <c r="E2">
-        <v>0.5362565655093618</v>
+        <v>0.5320801247350531</v>
       </c>
       <c r="F2">
-        <v>0.1269636665262652</v>
+        <v>0.1140459095371362</v>
       </c>
       <c r="G2">
-        <v>0.2182011302587767</v>
+        <v>0.1819099463569316</v>
       </c>
       <c r="H2">
-        <v>0.05025291108567864</v>
+        <v>0.04664738989102268</v>
       </c>
       <c r="I2">
-        <v>0.04112684822281798</v>
+        <v>0.03399425590841965</v>
       </c>
       <c r="J2">
-        <v>0.1649913871622957</v>
+        <v>0.199732855870792</v>
       </c>
       <c r="K2">
-        <v>0.2409946667826652</v>
+        <v>0.2087743543055609</v>
       </c>
       <c r="L2">
-        <v>1.116917749586833</v>
+        <v>0.1419948343139268</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04982079266346418</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.120984851747835</v>
       </c>
       <c r="O2">
-        <v>32.40857865309403</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7599213260961051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.37580489384146</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6813591118314406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0889295288370775</v>
+        <v>0.06995833948912633</v>
       </c>
       <c r="D3">
-        <v>0.1336228334703691</v>
+        <v>0.1258619988104073</v>
       </c>
       <c r="E3">
-        <v>0.4711252188650903</v>
+        <v>0.4672680380793182</v>
       </c>
       <c r="F3">
-        <v>0.1307144878296214</v>
+        <v>0.1218811605485222</v>
       </c>
       <c r="G3">
-        <v>0.1949032235986223</v>
+        <v>0.1628256686306955</v>
       </c>
       <c r="H3">
-        <v>0.0331581209549493</v>
+        <v>0.03072735376400421</v>
       </c>
       <c r="I3">
-        <v>0.03213130411167464</v>
+        <v>0.02697587602355167</v>
       </c>
       <c r="J3">
-        <v>0.163216195905612</v>
+        <v>0.2001875692062427</v>
       </c>
       <c r="K3">
-        <v>0.2233307717905326</v>
+        <v>0.1984112431243474</v>
       </c>
       <c r="L3">
-        <v>0.9772489767137245</v>
+        <v>0.1450090382352975</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03784040702247182</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.9800991771703877</v>
       </c>
       <c r="O3">
-        <v>27.86839036041141</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7062827475210298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>27.84666481116767</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6480227726746932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08083552877116773</v>
+        <v>0.06388053398613636</v>
       </c>
       <c r="D4">
-        <v>0.1257261242995753</v>
+        <v>0.1187403954256752</v>
       </c>
       <c r="E4">
-        <v>0.4316300283626973</v>
+        <v>0.4280546467323774</v>
       </c>
       <c r="F4">
-        <v>0.1358041771117975</v>
+        <v>0.1291285134693574</v>
       </c>
       <c r="G4">
-        <v>0.1824211155721756</v>
+        <v>0.1528302940759545</v>
       </c>
       <c r="H4">
-        <v>0.02451015774500678</v>
+        <v>0.02267966162211546</v>
       </c>
       <c r="I4">
-        <v>0.02712166425566087</v>
+        <v>0.02304674603380219</v>
       </c>
       <c r="J4">
-        <v>0.1630621760632494</v>
+        <v>0.2009525381577433</v>
       </c>
       <c r="K4">
-        <v>0.2135218847868003</v>
+        <v>0.1927195428543733</v>
       </c>
       <c r="L4">
-        <v>0.8922385773071255</v>
+        <v>0.1469209509696654</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03150263502629258</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.894437001394266</v>
       </c>
       <c r="O4">
-        <v>25.15148516953082</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.679165550250616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.13514705724521</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6321745822619818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07716419347525516</v>
+        <v>0.06113543173919567</v>
       </c>
       <c r="D5">
-        <v>0.1224828105411717</v>
+        <v>0.1158381730810589</v>
       </c>
       <c r="E5">
-        <v>0.4155699617362316</v>
+        <v>0.4121295913507055</v>
       </c>
       <c r="F5">
-        <v>0.1382739846709633</v>
+        <v>0.132423706735846</v>
       </c>
       <c r="G5">
-        <v>0.177362292134589</v>
+        <v>0.1487973518917016</v>
       </c>
       <c r="H5">
-        <v>0.02136683438597456</v>
+        <v>0.01975651697177919</v>
       </c>
       <c r="I5">
-        <v>0.02521922130884358</v>
+        <v>0.02157168271609944</v>
       </c>
       <c r="J5">
-        <v>0.163020790170286</v>
+        <v>0.2011919268085549</v>
       </c>
       <c r="K5">
-        <v>0.2092671470695926</v>
+        <v>0.1901122458702105</v>
       </c>
       <c r="L5">
-        <v>0.857765522324712</v>
+        <v>0.1475015013423437</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02903643664963873</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.8597185483191083</v>
       </c>
       <c r="O5">
-        <v>24.05801768784272</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6682162269191423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.04361055999203</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.625652715077976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07610283252564187</v>
+        <v>0.06033179926767929</v>
       </c>
       <c r="D6">
-        <v>0.1218265352234624</v>
+        <v>0.1152460384306551</v>
       </c>
       <c r="E6">
-        <v>0.4128397861377096</v>
+        <v>0.4094252381770787</v>
       </c>
       <c r="F6">
-        <v>0.1384488433290869</v>
+        <v>0.1327580974763016</v>
       </c>
       <c r="G6">
-        <v>0.1760916562212529</v>
+        <v>0.1477387422823355</v>
       </c>
       <c r="H6">
-        <v>0.02085985458269776</v>
+        <v>0.01928549177910222</v>
       </c>
       <c r="I6">
-        <v>0.02495219149916927</v>
+        <v>0.02139460959221307</v>
       </c>
       <c r="J6">
-        <v>0.1627945266965796</v>
+        <v>0.2010150811768128</v>
       </c>
       <c r="K6">
-        <v>0.2079810163437266</v>
+        <v>0.1891575934545671</v>
       </c>
       <c r="L6">
-        <v>0.8521002050201218</v>
+        <v>0.1473402457639033</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02849274752454001</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8540127215078996</v>
       </c>
       <c r="O6">
-        <v>23.87711825622574</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6650251705807477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.86302275541965</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6233026972850126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07954612450875231</v>
+        <v>0.06299676683067901</v>
       </c>
       <c r="D7">
-        <v>0.1253497487940507</v>
+        <v>0.1181960989380713</v>
       </c>
       <c r="E7">
-        <v>0.4312283161441997</v>
+        <v>0.4275533780848235</v>
       </c>
       <c r="F7">
-        <v>0.1350925895180737</v>
+        <v>0.1281041732463208</v>
       </c>
       <c r="G7">
-        <v>0.1811067812368137</v>
+        <v>0.1539029241680865</v>
       </c>
       <c r="H7">
-        <v>0.02444764741776653</v>
+        <v>0.02261235448549254</v>
       </c>
       <c r="I7">
-        <v>0.02719600310703818</v>
+        <v>0.02316679764541973</v>
       </c>
       <c r="J7">
-        <v>0.1624260670100668</v>
+        <v>0.1968649505681057</v>
       </c>
       <c r="K7">
-        <v>0.2118366582129383</v>
+        <v>0.1907433988605973</v>
       </c>
       <c r="L7">
-        <v>0.8919192572989516</v>
+        <v>0.1460060815434687</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03090292542026596</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.8941982018116903</v>
       </c>
       <c r="O7">
-        <v>25.1365235416842</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6750440613199373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.12013590972464</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.626274611218804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09592183429771239</v>
+        <v>0.07564522908061377</v>
       </c>
       <c r="D8">
-        <v>0.1419099751919788</v>
+        <v>0.132801747021702</v>
       </c>
       <c r="E8">
-        <v>0.5134329684778365</v>
+        <v>0.5090043311381791</v>
       </c>
       <c r="F8">
-        <v>0.1266209399442424</v>
+        <v>0.1139662868412046</v>
       </c>
       <c r="G8">
-        <v>0.2080724243267227</v>
+        <v>0.1810731262735032</v>
       </c>
       <c r="H8">
-        <v>0.04389110213412584</v>
+        <v>0.04068105010344109</v>
       </c>
       <c r="I8">
-        <v>0.03800552872656571</v>
+        <v>0.03160509168961578</v>
       </c>
       <c r="J8">
-        <v>0.1633174302785747</v>
+        <v>0.1875296193314</v>
       </c>
       <c r="K8">
-        <v>0.2324777572982875</v>
+        <v>0.2014872166072514</v>
       </c>
       <c r="L8">
-        <v>1.068764337067734</v>
+        <v>0.1414631444788412</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04429320277827387</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.072685389352159</v>
       </c>
       <c r="O8">
-        <v>30.82543590709497</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7347606103702589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>30.79645915260102</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6566837302416531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.130997557996622</v>
+        <v>0.1035176473476227</v>
       </c>
       <c r="D9">
-        <v>0.1788004809727539</v>
+        <v>0.167487945238733</v>
       </c>
       <c r="E9">
-        <v>0.6810318694364668</v>
+        <v>0.6763741468184463</v>
       </c>
       <c r="F9">
-        <v>0.1381157249215299</v>
+        <v>0.1121289411528039</v>
       </c>
       <c r="G9">
-        <v>0.2809886409971938</v>
+        <v>0.2450070991682125</v>
       </c>
       <c r="H9">
-        <v>0.1012376316828387</v>
+        <v>0.09407698047637747</v>
       </c>
       <c r="I9">
-        <v>0.06421180340212995</v>
+        <v>0.05177518527162395</v>
       </c>
       <c r="J9">
-        <v>0.1749862936959659</v>
+        <v>0.1869240008935407</v>
       </c>
       <c r="K9">
-        <v>0.2859789993551587</v>
+        <v>0.2334905289939506</v>
       </c>
       <c r="L9">
-        <v>1.425026872783604</v>
+        <v>0.1351063592986428</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08105331904557289</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.432779659864281</v>
       </c>
       <c r="O9">
-        <v>42.78223845078719</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9150705810891964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>42.71221407105935</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.775032542209189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1583238215539637</v>
+        <v>0.1275420543798091</v>
       </c>
       <c r="D10">
-        <v>0.2163840906231229</v>
+        <v>0.2032443766176897</v>
       </c>
       <c r="E10">
-        <v>0.8314194196592268</v>
+        <v>0.8267640606264166</v>
       </c>
       <c r="F10">
-        <v>0.1645946328651604</v>
+        <v>0.1239214568867197</v>
       </c>
       <c r="G10">
-        <v>0.3445662438342083</v>
+        <v>0.3164742323911582</v>
       </c>
       <c r="H10">
-        <v>0.1631934581130352</v>
+        <v>0.1516141077630939</v>
       </c>
       <c r="I10">
-        <v>0.08848347127594103</v>
+        <v>0.07020607331687678</v>
       </c>
       <c r="J10">
-        <v>0.1877348951994264</v>
+        <v>0.167761315159737</v>
       </c>
       <c r="K10">
-        <v>0.3290553629787567</v>
+        <v>0.2558303761759788</v>
       </c>
       <c r="L10">
-        <v>1.738300781500016</v>
+        <v>0.1283653428490368</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1124894198110269</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.750185806753876</v>
       </c>
       <c r="O10">
-        <v>52.51891184718386</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.077496987955612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>52.39465741779372</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8709980644261464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1764116617956546</v>
+        <v>0.147394997595633</v>
       </c>
       <c r="D11">
-        <v>0.2950543948097248</v>
+        <v>0.2780683849411929</v>
       </c>
       <c r="E11">
-        <v>1.085135853228479</v>
+        <v>1.078623089451</v>
       </c>
       <c r="F11">
-        <v>0.1329597622864931</v>
+        <v>0.08991248509686045</v>
       </c>
       <c r="G11">
-        <v>0.3253854406720933</v>
+        <v>0.331883284256989</v>
       </c>
       <c r="H11">
-        <v>0.2133522395884846</v>
+        <v>0.1991937099469077</v>
       </c>
       <c r="I11">
-        <v>0.101330385195979</v>
+        <v>0.07989365087382438</v>
       </c>
       <c r="J11">
-        <v>0.1674543050062596</v>
+        <v>0.1118364483293988</v>
       </c>
       <c r="K11">
-        <v>0.3080739784889417</v>
+        <v>0.2293689377763926</v>
       </c>
       <c r="L11">
-        <v>2.242556390005575</v>
+        <v>0.1120553240657358</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1132818724362608</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.256688866868075</v>
       </c>
       <c r="O11">
-        <v>57.30892038465004</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9948565230170345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>57.14748710135137</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7614522677862823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1885241637067026</v>
+        <v>0.1609925016866995</v>
       </c>
       <c r="D12">
-        <v>0.3615947866630194</v>
+        <v>0.3421010162895328</v>
       </c>
       <c r="E12">
-        <v>1.288072716249189</v>
+        <v>1.280080706995847</v>
       </c>
       <c r="F12">
-        <v>0.1057783233740928</v>
+        <v>0.06589835684677681</v>
       </c>
       <c r="G12">
-        <v>0.2983406158880371</v>
+        <v>0.32173049961456</v>
       </c>
       <c r="H12">
-        <v>0.2660447443501681</v>
+        <v>0.2507376507237993</v>
       </c>
       <c r="I12">
-        <v>0.1067867529366797</v>
+        <v>0.08392460493367349</v>
       </c>
       <c r="J12">
-        <v>0.1487482302866425</v>
+        <v>0.08493535634026017</v>
       </c>
       <c r="K12">
-        <v>0.2838913087324073</v>
+        <v>0.2067411545990971</v>
       </c>
       <c r="L12">
-        <v>2.640036780094391</v>
+        <v>0.1015591535401867</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1086998263229013</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.654565120990583</v>
       </c>
       <c r="O12">
-        <v>59.20453813901258</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8985734576401114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>59.025995585906</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.665873555452734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1942228083441648</v>
+        <v>0.1681733185736789</v>
       </c>
       <c r="D13">
-        <v>0.4207474639416375</v>
+        <v>0.4005677439307647</v>
       </c>
       <c r="E13">
-        <v>1.459708236712274</v>
+        <v>1.45094606941106</v>
       </c>
       <c r="F13">
-        <v>0.07622710138954147</v>
+        <v>0.04420861328394388</v>
       </c>
       <c r="G13">
-        <v>0.2596461280725038</v>
+        <v>0.2820784467618651</v>
       </c>
       <c r="H13">
-        <v>0.3198499642696504</v>
+        <v>0.3047559557383011</v>
       </c>
       <c r="I13">
-        <v>0.106196455019318</v>
+        <v>0.08353104585581494</v>
       </c>
       <c r="J13">
-        <v>0.12832077024526</v>
+        <v>0.07650335269681108</v>
       </c>
       <c r="K13">
-        <v>0.2521424403038353</v>
+        <v>0.1835442447495055</v>
       </c>
       <c r="L13">
-        <v>2.9716110673495</v>
+        <v>0.09392732031164286</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09871615941555945</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.984753247914171</v>
       </c>
       <c r="O13">
-        <v>58.80216211597451</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.7737853648344952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>58.62737567424762</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5678972063844583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1948770968424469</v>
+        <v>0.169984809010387</v>
       </c>
       <c r="D14">
-        <v>0.4591608902130133</v>
+        <v>0.4395510160981644</v>
       </c>
       <c r="E14">
-        <v>1.566685273043632</v>
+        <v>1.557837000667064</v>
       </c>
       <c r="F14">
-        <v>0.05538621552083356</v>
+        <v>0.03027670341297828</v>
       </c>
       <c r="G14">
-        <v>0.2275548975612125</v>
+        <v>0.242743565939044</v>
       </c>
       <c r="H14">
-        <v>0.3607506573013097</v>
+        <v>0.3464098296033882</v>
       </c>
       <c r="I14">
-        <v>0.10308071532853</v>
+        <v>0.08130310172932109</v>
       </c>
       <c r="J14">
-        <v>0.1133368003980735</v>
+        <v>0.07699888650950726</v>
       </c>
       <c r="K14">
-        <v>0.2264258443758393</v>
+        <v>0.1666506525411151</v>
       </c>
       <c r="L14">
-        <v>3.175840063488749</v>
+        <v>0.08960503513205964</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08926157096554022</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3.1872179953277</v>
       </c>
       <c r="O14">
-        <v>57.48332670255064</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6742959340048316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>57.32038341572866</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4972167227505224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1929705056874127</v>
+        <v>0.168467399837688</v>
       </c>
       <c r="D15">
-        <v>0.4655455455029198</v>
+        <v>0.4465229677014975</v>
       </c>
       <c r="E15">
-        <v>1.582710451786326</v>
+        <v>1.574045033669918</v>
       </c>
       <c r="F15">
-        <v>0.04907861937704894</v>
+        <v>0.0263485088480131</v>
       </c>
       <c r="G15">
-        <v>0.2167914260884274</v>
+        <v>0.2276426455208238</v>
       </c>
       <c r="H15">
-        <v>0.367556396111155</v>
+        <v>0.3536912062977819</v>
       </c>
       <c r="I15">
-        <v>0.1010568212899088</v>
+        <v>0.07987016911686684</v>
       </c>
       <c r="J15">
-        <v>0.1091119490982564</v>
+        <v>0.07978600649740031</v>
       </c>
       <c r="K15">
-        <v>0.2180287236790051</v>
+        <v>0.1617497159306005</v>
       </c>
       <c r="L15">
-        <v>3.205445995178707</v>
+        <v>0.08886101143767533</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08560098674165673</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3.216084766332699</v>
       </c>
       <c r="O15">
-        <v>56.68171765051443</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.6425659637220065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>56.52573405229538</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4771283357265474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1780015792127045</v>
+        <v>0.1534717095006002</v>
       </c>
       <c r="D16">
-        <v>0.4331598448804073</v>
+        <v>0.417576274109706</v>
       </c>
       <c r="E16">
-        <v>1.472658755704629</v>
+        <v>1.465554863752971</v>
       </c>
       <c r="F16">
-        <v>0.03656461188277405</v>
+        <v>0.0202769243886447</v>
       </c>
       <c r="G16">
-        <v>0.1925149488410867</v>
+        <v>0.1822133074100734</v>
       </c>
       <c r="H16">
-        <v>0.3209834258633606</v>
+        <v>0.3097286433478814</v>
       </c>
       <c r="I16">
-        <v>0.08901085735510961</v>
+        <v>0.07100073933056628</v>
       </c>
       <c r="J16">
-        <v>0.10568221955279</v>
+        <v>0.1061554496428272</v>
       </c>
       <c r="K16">
-        <v>0.2030625107412689</v>
+        <v>0.1580610434142784</v>
       </c>
       <c r="L16">
-        <v>2.983887042022047</v>
+        <v>0.09316623574837379</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07438318348985007</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.9920151037484</v>
       </c>
       <c r="O16">
-        <v>52.21296971861665</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5834891676082492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>52.09181000084607</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4578682805242664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1664082630521051</v>
+        <v>0.1415476495099028</v>
       </c>
       <c r="D17">
-        <v>0.3882267093913043</v>
+        <v>0.3743410064630126</v>
       </c>
       <c r="E17">
-        <v>1.332253067126899</v>
+        <v>1.32603512252345</v>
       </c>
       <c r="F17">
-        <v>0.03919995043529667</v>
+        <v>0.02438424979028753</v>
       </c>
       <c r="G17">
-        <v>0.1917745846170362</v>
+        <v>0.171344691538593</v>
       </c>
       <c r="H17">
-        <v>0.263692854714634</v>
+        <v>0.2538559078321043</v>
       </c>
       <c r="I17">
-        <v>0.0818833404576651</v>
+        <v>0.06568712235733987</v>
       </c>
       <c r="J17">
-        <v>0.1113659145716994</v>
+        <v>0.1254445632899959</v>
       </c>
       <c r="K17">
-        <v>0.2056132187799236</v>
+        <v>0.1640428665640954</v>
       </c>
       <c r="L17">
-        <v>2.707059411255329</v>
+        <v>0.0988183525704649</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0708030680041638</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.714404381143368</v>
       </c>
       <c r="O17">
-        <v>49.57734759344629</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5935387663689511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>49.47364626662835</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4812864709434876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1576013115756467</v>
+        <v>0.1315666871503467</v>
       </c>
       <c r="D18">
-        <v>0.3306643552885191</v>
+        <v>0.3176982091431171</v>
       </c>
       <c r="E18">
-        <v>1.157741139989085</v>
+        <v>1.152155669594308</v>
       </c>
       <c r="F18">
-        <v>0.05621476502111022</v>
+        <v>0.03940230084375784</v>
       </c>
       <c r="G18">
-        <v>0.2115601497228425</v>
+        <v>0.1835541245304952</v>
       </c>
       <c r="H18">
-        <v>0.2001404743425468</v>
+        <v>0.1910517620414822</v>
       </c>
       <c r="I18">
-        <v>0.0776336386154286</v>
+        <v>0.06238497348095073</v>
       </c>
       <c r="J18">
-        <v>0.1257349204581004</v>
+        <v>0.1448071365865005</v>
       </c>
       <c r="K18">
-        <v>0.2243363219261667</v>
+        <v>0.1808863101347562</v>
       </c>
       <c r="L18">
-        <v>2.36570738619352</v>
+        <v>0.1071405594752264</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07374827911412041</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.373220252215731</v>
       </c>
       <c r="O18">
-        <v>48.09408839055698</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6653854582125973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>47.99921195936099</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5499810488618238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1493043942436572</v>
+        <v>0.1222112951572427</v>
       </c>
       <c r="D19">
-        <v>0.2707312778048703</v>
+        <v>0.2584087202234429</v>
       </c>
       <c r="E19">
-        <v>0.9795338721008164</v>
+        <v>0.9745067078668797</v>
       </c>
       <c r="F19">
-        <v>0.08637421650635346</v>
+        <v>0.06493913996724032</v>
       </c>
       <c r="G19">
-        <v>0.2456225730405421</v>
+        <v>0.2108787402321042</v>
       </c>
       <c r="H19">
-        <v>0.1522159589056926</v>
+        <v>0.1433264943189059</v>
       </c>
       <c r="I19">
-        <v>0.07618272924570579</v>
+        <v>0.06130367348891408</v>
       </c>
       <c r="J19">
-        <v>0.1455046763748413</v>
+        <v>0.1641934368601241</v>
       </c>
       <c r="K19">
-        <v>0.2525163635050944</v>
+        <v>0.2037025583676559</v>
       </c>
       <c r="L19">
-        <v>2.019125007733948</v>
+        <v>0.1164334809065828</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08105437190153708</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.027306711589119</v>
       </c>
       <c r="O19">
-        <v>47.59935222911577</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7788990968742411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>47.50711367384486</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6491464718142623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1470417748003001</v>
+        <v>0.1179258277973219</v>
       </c>
       <c r="D20">
-        <v>0.2053098319181572</v>
+        <v>0.1932797178669432</v>
       </c>
       <c r="E20">
-        <v>0.7912614623044618</v>
+        <v>0.7869072316243972</v>
       </c>
       <c r="F20">
-        <v>0.1526210826002696</v>
+        <v>0.1180267167310305</v>
       </c>
       <c r="G20">
-        <v>0.3219405461740621</v>
+        <v>0.2834171013707589</v>
       </c>
       <c r="H20">
-        <v>0.1447721899059746</v>
+        <v>0.1345957049163777</v>
       </c>
       <c r="I20">
-        <v>0.08190297719915041</v>
+        <v>0.06557520545715878</v>
       </c>
       <c r="J20">
-        <v>0.1814876759063679</v>
+        <v>0.1825156932839676</v>
       </c>
       <c r="K20">
-        <v>0.3113244097492611</v>
+        <v>0.246464211671011</v>
       </c>
       <c r="L20">
-        <v>1.656501726303333</v>
+        <v>0.128984218385817</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1024571043063958</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.666855587519564</v>
       </c>
       <c r="O20">
-        <v>49.86190467228107</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.016197823547259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>49.75556043145104</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8379764161873595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1686117138664969</v>
+        <v>0.1388950097746999</v>
       </c>
       <c r="D21">
-        <v>0.2270446436220368</v>
+        <v>0.2109234725786138</v>
       </c>
       <c r="E21">
-        <v>0.8819096545253871</v>
+        <v>0.87624189518408</v>
       </c>
       <c r="F21">
-        <v>0.1949128792393822</v>
+        <v>0.1376567982059314</v>
       </c>
       <c r="G21">
-        <v>0.3889466582255636</v>
+        <v>0.4045188747512896</v>
       </c>
       <c r="H21">
-        <v>0.2034916947396974</v>
+        <v>0.1886525201883424</v>
       </c>
       <c r="I21">
-        <v>0.1029236868129839</v>
+        <v>0.08102466003671349</v>
       </c>
       <c r="J21">
-        <v>0.2001755388951096</v>
+        <v>0.1182667138430276</v>
       </c>
       <c r="K21">
-        <v>0.3572488363451569</v>
+        <v>0.2637150920459987</v>
       </c>
       <c r="L21">
-        <v>1.847049963910337</v>
+        <v>0.1233864345507811</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1281843675633283</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.862989683978412</v>
       </c>
       <c r="O21">
-        <v>57.86806444310753</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.198109040125416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>57.69975226045801</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9154538606446181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1856001011132662</v>
+        <v>0.1556833490884486</v>
       </c>
       <c r="D22">
-        <v>0.2469585902377816</v>
+        <v>0.2282103754488247</v>
       </c>
       <c r="E22">
-        <v>0.9555300425406728</v>
+        <v>0.9491133643165597</v>
       </c>
       <c r="F22">
-        <v>0.2297544451727731</v>
+        <v>0.1556088269808029</v>
       </c>
       <c r="G22">
-        <v>0.4377836813572742</v>
+        <v>0.4976055215024076</v>
       </c>
       <c r="H22">
-        <v>0.2505688183829413</v>
+        <v>0.231890386014733</v>
       </c>
       <c r="I22">
-        <v>0.1185139188428961</v>
+        <v>0.09230159971184282</v>
       </c>
       <c r="J22">
-        <v>0.2143535154004041</v>
+        <v>0.08200810636139266</v>
       </c>
       <c r="K22">
-        <v>0.3906596476024689</v>
+        <v>0.276329541345639</v>
       </c>
       <c r="L22">
-        <v>1.998214850195694</v>
+        <v>0.1197577315432525</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1468281182707045</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.018233527153939</v>
       </c>
       <c r="O22">
-        <v>63.56596371303101</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.331820717740896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>63.33979957392495</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9728083340554292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1779316042819943</v>
+        <v>0.1473343378051979</v>
       </c>
       <c r="D23">
-        <v>0.2364543676464024</v>
+        <v>0.2195049481836264</v>
       </c>
       <c r="E23">
-        <v>0.9159165986972084</v>
+        <v>0.9101237208645614</v>
       </c>
       <c r="F23">
-        <v>0.2111369222938535</v>
+        <v>0.1471349499546157</v>
       </c>
       <c r="G23">
-        <v>0.4126434208179006</v>
+        <v>0.4409587439452451</v>
       </c>
       <c r="H23">
-        <v>0.2245083268663828</v>
+        <v>0.2080160533036528</v>
       </c>
       <c r="I23">
-        <v>0.1098872082945457</v>
+        <v>0.08599790338770053</v>
       </c>
       <c r="J23">
-        <v>0.2073059189552993</v>
+        <v>0.1069097823793754</v>
       </c>
       <c r="K23">
-        <v>0.3745300930056885</v>
+        <v>0.2724150250277049</v>
       </c>
       <c r="L23">
-        <v>1.916424403838278</v>
+        <v>0.122691631473522</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1379636554700667</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.933973998793078</v>
       </c>
       <c r="O23">
-        <v>60.47228514471618</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.263503940287592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>60.27970223183945</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9510379873665045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1484018948465433</v>
+        <v>0.1185080060383683</v>
       </c>
       <c r="D24">
-        <v>0.2005899579040005</v>
+        <v>0.1886595268799596</v>
       </c>
       <c r="E24">
-        <v>0.7749635629899387</v>
+        <v>0.7706783264944903</v>
       </c>
       <c r="F24">
-        <v>0.1585087648650827</v>
+        <v>0.1232248671465399</v>
       </c>
       <c r="G24">
-        <v>0.3281575743391869</v>
+        <v>0.2883350431657448</v>
       </c>
       <c r="H24">
-        <v>0.1443434022085361</v>
+        <v>0.134194925297775</v>
       </c>
       <c r="I24">
-        <v>0.08142150776035351</v>
+        <v>0.06503078858617695</v>
       </c>
       <c r="J24">
-        <v>0.1849787850083686</v>
+        <v>0.1862693750279121</v>
       </c>
       <c r="K24">
-        <v>0.3175082127866986</v>
+        <v>0.2517207459209914</v>
       </c>
       <c r="L24">
-        <v>1.623461484317119</v>
+        <v>0.1310907197740931</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1042424203405687</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.6338234118343</v>
       </c>
       <c r="O24">
-        <v>49.73945464647204</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.036673378059618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>49.63370798407931</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8563926003992322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1190676528918999</v>
+        <v>0.09390539681983512</v>
       </c>
       <c r="D25">
-        <v>0.1676584657826936</v>
+        <v>0.1571042127972504</v>
       </c>
       <c r="E25">
-        <v>0.6343622129817845</v>
+        <v>0.6298024049469859</v>
       </c>
       <c r="F25">
-        <v>0.1299848527421155</v>
+        <v>0.1088674223325832</v>
       </c>
       <c r="G25">
-        <v>0.2564831719124143</v>
+        <v>0.2199112438700652</v>
       </c>
       <c r="H25">
-        <v>0.08287817000734887</v>
+        <v>0.07700847195675153</v>
       </c>
       <c r="I25">
-        <v>0.05655141265218067</v>
+        <v>0.04607394454795077</v>
       </c>
       <c r="J25">
-        <v>0.1694908600405398</v>
+        <v>0.1903629920983789</v>
       </c>
       <c r="K25">
-        <v>0.2670812559727835</v>
+        <v>0.2220007389763126</v>
       </c>
       <c r="L25">
-        <v>1.327248056176444</v>
+        <v>0.1359828930740647</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0692475354227966</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.333699014363617</v>
       </c>
       <c r="O25">
-        <v>39.4219114232497</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.85126382900566</v>
+        <v>39.36603092443517</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.733575291215729</v>
       </c>
     </row>
   </sheetData>
